--- a/AAII_Financials/Quarterly/NE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>NE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>281300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>454100</v>
+      </c>
+      <c r="F8" s="3">
         <v>275500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>292900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>282900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>309900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>279400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>258400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>235200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>329600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>266200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>278100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>363000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>410200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>385200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>172800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>192300</v>
+      </c>
+      <c r="F9" s="3">
         <v>189700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>184200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>181100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>193400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>172700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>159700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>141200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>158400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>169900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>167200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>165900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>182900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>108500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>261800</v>
+      </c>
+      <c r="F10" s="3">
         <v>85800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>108700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>101800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>116500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>106700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>98700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>94000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>171200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>96300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>110900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>197100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>227300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>168900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1119500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F14" s="3">
         <v>596200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-31300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>2400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>792800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>8800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>121600</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1435400</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>103700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>106700</v>
+      </c>
+      <c r="F15" s="3">
         <v>112800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>111100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>109600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>114200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>113900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>129700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>128800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>138100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>137600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>136600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>135700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>155200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>155200</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1413900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>337800</v>
+      </c>
+      <c r="F17" s="3">
         <v>916200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>411600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>275400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>324800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>301100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1104000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>300800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>439900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>322800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>322400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>317500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1788300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>387400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1132600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>116300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-640700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-118700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>7500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-14900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-21700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-845600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-65600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-110300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-56600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-44300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>45500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1378100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>2800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1031200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>224800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-528100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-5700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>119500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>100800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>94700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-713100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>64400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>29600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>82400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>95400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>182800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1221500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>153600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>70900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>71200</v>
+      </c>
+      <c r="F22" s="3">
         <v>69000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>69000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>70200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>73700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>73700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>74100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>76000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>72400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>72900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>73200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>73400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>55900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1205700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>46800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-709800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-185800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-60300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-87100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-92800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-916900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-140300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-180900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-128100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-114400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-26400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1432600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-54200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-37200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-56300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-14500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-38800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-59000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-28600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-18200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>257400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-149500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1062700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>48200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-707000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-148600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-63100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-30800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-78400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-878000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-143300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-122000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-99500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-96200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-283800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1283200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-44200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1062700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-444900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-152000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-67100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-33100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-81600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-628100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-142300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-133700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-96800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-91900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-301700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1289400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1586,40 +1707,46 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-3800</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>109000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1500</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-2800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1062700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-444900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-152000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-70900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-33100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-81600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-628100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-142300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-24700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-96800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-93400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-301700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1289400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1062700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-444900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-152000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-70900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-33100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-81600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-628100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-142300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-24700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-96800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-93400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-301700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1289400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>175900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>104600</v>
+      </c>
+      <c r="F41" s="3">
         <v>136000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>153800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>187100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>375200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>326300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>411500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>461700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>662800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>608800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>603000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>519800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>725700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2234,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>418600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>279700</v>
+      </c>
+      <c r="F43" s="3">
         <v>272400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>270200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>228000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>221200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>264700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>225000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>203300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>310000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>257900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>260800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>381800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>374600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,110 +2334,128 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>37800</v>
+      </c>
+      <c r="F45" s="3">
         <v>36900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>38100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>46000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>62600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>69800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>60700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>55400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>66100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>74600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>74300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>63000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>92300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>102800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>621300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>422100</v>
+      </c>
+      <c r="F46" s="3">
         <v>445300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>462100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>461100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>659100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>660800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>697300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>720500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1039000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>941300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>938100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>964500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1192600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>883800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F47" s="3">
         <v>16100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>18500</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -2257,11 +2466,11 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2275,52 +2484,64 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6535300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7767400</v>
+      </c>
+      <c r="F48" s="3">
         <v>7844200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>8488500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>8534900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>8480700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>8543400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>8521400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>9398900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>9489200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>9712300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>9838300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>9944400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>10061900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>11591800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>85500</v>
+      </c>
+      <c r="F52" s="3">
         <v>89900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>91700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>120400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>125100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>196900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>175000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>148800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>266400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>244700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>248700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>97100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>185600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>108600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7261100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8284500</v>
+      </c>
+      <c r="F54" s="3">
         <v>8395500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9060700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9116300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>9264900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>9401100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9393700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10268100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10794700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10898200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>11025100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>11006000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>11440100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>12584100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,70 +2878,78 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>108200</v>
+      </c>
+      <c r="F57" s="3">
         <v>108800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>118000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>111000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>125600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>103300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>93600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>94300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>84000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>84000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>86600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>83800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>108200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>261000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>62500</v>
+      </c>
+      <c r="F58" s="3">
         <v>362500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>300000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>300000</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
@@ -2690,201 +2957,231 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>249800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>249700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>249500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>249300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>299900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>299800</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>310800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>346200</v>
+      </c>
+      <c r="F59" s="3">
         <v>299500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>316700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>184600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>239900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>212500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>243600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>200200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>259100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>261600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>312300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>216800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>225200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>659600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>516900</v>
+      </c>
+      <c r="F60" s="3">
         <v>770700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>734800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>595600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>365500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>315800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>337200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>294500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>593000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>595300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>648500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>549900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>633300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>684100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3692500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3779500</v>
+      </c>
+      <c r="F61" s="3">
         <v>3577900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3553100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3550800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3877400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3903000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3842600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3841400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3795900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3795300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3793900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3792500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4040200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>3830200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>312500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>329100</v>
+      </c>
+      <c r="F62" s="3">
         <v>331700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>345100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>386100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>367500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>490600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>440800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>473500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>455100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>542800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>510300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>481700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>299200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4664600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4625500</v>
+      </c>
+      <c r="F66" s="3">
         <v>4801700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5024100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4932800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5011800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5113100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5031500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5280200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5518500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5611300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5648700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5545400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5681400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5539200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1845100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2907800</v>
+      </c>
+      <c r="F72" s="3">
         <v>2940600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>3385500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>3537500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>3608400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>3641400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>3721400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>4351100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>4637700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>4662500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>4759300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>4852600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>5154200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>6457100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2596500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3659000</v>
+      </c>
+      <c r="F76" s="3">
         <v>3593800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4036600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4183500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4253200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4288000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4362200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4988000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>5276200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>5287000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>5376400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5460500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5758700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>7044900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1062700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-444900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-152000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-70900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-33100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-81600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-628100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-142300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-24700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-96800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-93400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-301700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1289400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>103700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>106700</v>
+      </c>
+      <c r="F83" s="3">
         <v>112800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>111100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>109600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>114200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>113900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>129700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>128800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>138100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>137600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>136600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>135700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>155200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>155200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>218200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-24000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>33300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-40800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>128500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-10600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>54900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>154900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>44800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>112400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>141900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>165600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>101100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-70200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-55600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-96800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-45500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-73500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-42100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-33800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-36800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-25400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-30200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-18700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-727800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-351000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-70200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-54100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-88900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-44200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-73100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-38400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-33700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-32900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-18100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-29200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-38100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-60000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-472200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,10 +4657,16 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>108600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-206700</v>
+      </c>
+      <c r="F100" s="3">
         <v>76400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-12500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-57900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-35400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-10700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-222400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-30600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-20900</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-309700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>196300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-28200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>71300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-17800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-33300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-187500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>48900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-84500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-50200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-201200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>54100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>5800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>83200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-206000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>299700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-396900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>NE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,295 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>219300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>169900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>203200</v>
+      </c>
+      <c r="G8" s="3">
+        <v>241800</v>
+      </c>
+      <c r="H8" s="3">
+        <v>237900</v>
+      </c>
+      <c r="I8" s="3">
         <v>281300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="J8" s="3">
         <v>454100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="K8" s="3">
         <v>275500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="L8" s="3">
         <v>292900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="M8" s="3">
         <v>282900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="N8" s="3">
         <v>309900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="O8" s="3">
         <v>279400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="P8" s="3">
         <v>258400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="Q8" s="3">
         <v>235200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="R8" s="3">
         <v>329600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="S8" s="3">
         <v>266200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="T8" s="3">
         <v>278100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="U8" s="3">
         <v>363000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="V8" s="3">
         <v>410200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="W8" s="3">
         <v>385200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>206800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>136700</v>
+      </c>
+      <c r="F9" s="3">
+        <v>131800</v>
+      </c>
+      <c r="G9" s="3">
+        <v>150500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>160500</v>
+      </c>
+      <c r="I9" s="3">
         <v>172800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="J9" s="3">
         <v>192300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="K9" s="3">
         <v>189700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="L9" s="3">
         <v>184200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="M9" s="3">
         <v>181100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="N9" s="3">
         <v>193400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="O9" s="3">
         <v>172700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="P9" s="3">
         <v>159700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="Q9" s="3">
         <v>141200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="R9" s="3">
         <v>158400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="S9" s="3">
         <v>169900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="T9" s="3">
         <v>167200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="U9" s="3">
         <v>165900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="V9" s="3">
         <v>182900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="W9" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>33200</v>
+      </c>
+      <c r="F10" s="3">
+        <v>71400</v>
+      </c>
+      <c r="G10" s="3">
+        <v>91300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>77400</v>
+      </c>
+      <c r="I10" s="3">
         <v>108500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="J10" s="3">
         <v>261800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="K10" s="3">
         <v>85800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="L10" s="3">
         <v>108700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="M10" s="3">
         <v>101800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="N10" s="3">
         <v>116500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="O10" s="3">
         <v>106700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="P10" s="3">
         <v>98700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="Q10" s="3">
         <v>94000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="R10" s="3">
         <v>171200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="S10" s="3">
         <v>96300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="T10" s="3">
         <v>110900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="U10" s="3">
         <v>197100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="V10" s="3">
         <v>227300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="W10" s="3">
         <v>168900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +972,13 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +1027,23 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,108 +1092,153 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-252100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2810800</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="H14" s="3">
+        <v>600</v>
+      </c>
+      <c r="I14" s="3">
         <v>1119500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="J14" s="3">
         <v>19800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="K14" s="3">
         <v>596200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-31300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="N14" s="3">
         <v>2400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="P14" s="3">
         <v>792800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="Q14" s="3">
         <v>8800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="R14" s="3">
         <v>121600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>1435400</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>34900</v>
+      </c>
+      <c r="F15" s="3">
+        <v>90500</v>
+      </c>
+      <c r="G15" s="3">
+        <v>90600</v>
+      </c>
+      <c r="H15" s="3">
+        <v>89400</v>
+      </c>
+      <c r="I15" s="3">
         <v>103700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="J15" s="3">
         <v>106700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="K15" s="3">
         <v>112800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="L15" s="3">
         <v>111100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="M15" s="3">
         <v>109600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="N15" s="3">
         <v>114200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="O15" s="3">
         <v>113900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="P15" s="3">
         <v>129700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="Q15" s="3">
         <v>128800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="R15" s="3">
         <v>138100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="S15" s="3">
         <v>137600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="T15" s="3">
         <v>136600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="U15" s="3">
         <v>135700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="V15" s="3">
         <v>155200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="W15" s="3">
         <v>155200</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1254,143 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>199400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3047800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>251900</v>
+      </c>
+      <c r="H17" s="3">
+        <v>334000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1413900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="J17" s="3">
         <v>337800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="K17" s="3">
         <v>916200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="L17" s="3">
         <v>411600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="M17" s="3">
         <v>275400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="N17" s="3">
         <v>324800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="O17" s="3">
         <v>301100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="P17" s="3">
         <v>1104000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="Q17" s="3">
         <v>300800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="R17" s="3">
         <v>439900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="S17" s="3">
         <v>322800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="T17" s="3">
         <v>322400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="U17" s="3">
         <v>317500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="V17" s="3">
         <v>1788300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="W17" s="3">
         <v>387400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>235100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2844600</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1132600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="J18" s="3">
         <v>116300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="K18" s="3">
         <v>-640700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="L18" s="3">
         <v>-118700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="M18" s="3">
         <v>7500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="N18" s="3">
         <v>-14900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="O18" s="3">
         <v>-21700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="P18" s="3">
         <v>-845600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="Q18" s="3">
         <v>-65600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="R18" s="3">
         <v>-110300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="S18" s="3">
         <v>-56600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="T18" s="3">
         <v>-44300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="U18" s="3">
         <v>45500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="V18" s="3">
         <v>-1378100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="W18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1409,338 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="M20" s="3">
         <v>2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="O20" s="3">
         <v>2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="P20" s="3">
         <v>2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="R20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="S20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="T20" s="3">
         <v>3100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="U20" s="3">
         <v>1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="V20" s="3">
         <v>1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>278800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2753600</v>
+      </c>
+      <c r="G21" s="3">
+        <v>88400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1031200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="J21" s="3">
         <v>224800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="K21" s="3">
         <v>-528100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="L21" s="3">
         <v>-5700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="M21" s="3">
         <v>119500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="N21" s="3">
         <v>100800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="O21" s="3">
         <v>94700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="P21" s="3">
         <v>-713100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="Q21" s="3">
         <v>64400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="R21" s="3">
         <v>29600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="S21" s="3">
         <v>82400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="T21" s="3">
         <v>95400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="U21" s="3">
         <v>182800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="V21" s="3">
         <v>-1221500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="W21" s="3">
         <v>153600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>23400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>70300</v>
+      </c>
+      <c r="I22" s="3">
         <v>70900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="J22" s="3">
         <v>71200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="K22" s="3">
         <v>69000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="L22" s="3">
         <v>69000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="M22" s="3">
         <v>70200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="N22" s="3">
         <v>73700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="O22" s="3">
         <v>73700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="P22" s="3">
         <v>74100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="Q22" s="3">
         <v>76000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="R22" s="3">
         <v>72400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="S22" s="3">
         <v>72900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="T22" s="3">
         <v>73200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="U22" s="3">
         <v>73400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="V22" s="3">
         <v>55900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="W22" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>228400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-2844200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-163400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1205700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="J23" s="3">
         <v>46800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="K23" s="3">
         <v>-709800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="L23" s="3">
         <v>-185800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="M23" s="3">
         <v>-60300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="N23" s="3">
         <v>-87100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="O23" s="3">
         <v>-92800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="P23" s="3">
         <v>-916900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="Q23" s="3">
         <v>-140300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="R23" s="3">
         <v>-180900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="S23" s="3">
         <v>-128100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="T23" s="3">
         <v>-114400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="U23" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="V23" s="3">
         <v>-1432600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="W23" s="3">
         <v>-54200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="G24" s="3">
+        <v>25300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-121200</v>
+      </c>
+      <c r="I24" s="3">
         <v>-143000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="J24" s="3">
         <v>-1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="K24" s="3">
         <v>-2800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="L24" s="3">
         <v>-37200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="M24" s="3">
         <v>2900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="N24" s="3">
         <v>-56300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="O24" s="3">
         <v>-14500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="P24" s="3">
         <v>-38800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="Q24" s="3">
         <v>3000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="R24" s="3">
         <v>-59000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="S24" s="3">
         <v>-28600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="T24" s="3">
         <v>-18200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="U24" s="3">
         <v>257400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="V24" s="3">
         <v>-149500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="W24" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1789,153 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>232000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-2822700</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1062700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="J26" s="3">
         <v>48200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="K26" s="3">
         <v>-707000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="L26" s="3">
         <v>-148600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="M26" s="3">
         <v>-63100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="N26" s="3">
         <v>-30800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="O26" s="3">
         <v>-78400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="P26" s="3">
         <v>-878000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="Q26" s="3">
         <v>-143300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="R26" s="3">
         <v>-122000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="S26" s="3">
         <v>-99500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="T26" s="3">
         <v>-96200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="U26" s="3">
         <v>-283800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="V26" s="3">
         <v>-1283200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="W26" s="3">
         <v>-44200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>232000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-2822700</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1062700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="J27" s="3">
         <v>-32900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="K27" s="3">
         <v>-444900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="L27" s="3">
         <v>-152000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="M27" s="3">
         <v>-67100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="N27" s="3">
         <v>-33100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="O27" s="3">
         <v>-81600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="P27" s="3">
         <v>-628100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="Q27" s="3">
         <v>-142300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="R27" s="3">
         <v>-133700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="S27" s="3">
         <v>-96800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="T27" s="3">
         <v>-91900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="U27" s="3">
         <v>-301700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="V27" s="3">
         <v>-1289400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="W27" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,58 +1984,88 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-3800</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="R29" s="3">
         <v>109000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-1500</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +2114,23 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +2179,153 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I32" s="3">
         <v>2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="M32" s="3">
         <v>-2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="O32" s="3">
         <v>-2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="P32" s="3">
         <v>-2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="R32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="S32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="T32" s="3">
         <v>-3100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="U32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="V32" s="3">
         <v>-1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>232000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-2822700</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1062700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="J33" s="3">
         <v>-32900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="K33" s="3">
         <v>-444900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="L33" s="3">
         <v>-152000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="M33" s="3">
         <v>-70900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="N33" s="3">
         <v>-33100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="O33" s="3">
         <v>-81600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="P33" s="3">
         <v>-628100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="Q33" s="3">
         <v>-142300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="R33" s="3">
         <v>-24700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="S33" s="3">
         <v>-96800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="T33" s="3">
         <v>-93400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="U33" s="3">
         <v>-301700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="V33" s="3">
         <v>-1289400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="W33" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2374,158 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>232000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-2822700</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1062700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="J35" s="3">
         <v>-32900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="K35" s="3">
         <v>-444900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="L35" s="3">
         <v>-152000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="M35" s="3">
         <v>-70900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="N35" s="3">
         <v>-33100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="O35" s="3">
         <v>-81600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="P35" s="3">
         <v>-628100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="Q35" s="3">
         <v>-142300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="R35" s="3">
         <v>-24700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="S35" s="3">
         <v>-96800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="T35" s="3">
         <v>-93400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="U35" s="3">
         <v>-301700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="V35" s="3">
         <v>-1289400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="W35" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="H38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2544,13 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2569,78 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>161200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>116300</v>
+      </c>
+      <c r="F41" s="3">
+        <v>343300</v>
+      </c>
+      <c r="G41" s="3">
+        <v>325100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>191200</v>
+      </c>
+      <c r="I41" s="3">
         <v>175900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="J41" s="3">
         <v>104600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="K41" s="3">
         <v>136000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="L41" s="3">
         <v>153800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="M41" s="3">
         <v>187100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="N41" s="3">
         <v>375200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="O41" s="3">
         <v>326300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="P41" s="3">
         <v>411500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="Q41" s="3">
         <v>461700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="R41" s="3">
         <v>662800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="S41" s="3">
         <v>608800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="T41" s="3">
         <v>603000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="U41" s="3">
         <v>519800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="V41" s="3">
         <v>725700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="W41" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,58 +2689,88 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>418600</v>
+        <v>257200</v>
       </c>
       <c r="E43" s="3">
-        <v>279700</v>
+        <v>210400</v>
       </c>
       <c r="F43" s="3">
+        <v>178600</v>
+      </c>
+      <c r="G43" s="3">
+        <v>209600</v>
+      </c>
+      <c r="H43" s="3">
+        <v>357100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>401500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>258400</v>
+      </c>
+      <c r="K43" s="3">
         <v>272400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="L43" s="3">
         <v>270200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="M43" s="3">
         <v>228000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="N43" s="3">
         <v>221200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="O43" s="3">
         <v>264700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="P43" s="3">
         <v>225000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="Q43" s="3">
         <v>203300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="R43" s="3">
         <v>310000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="S43" s="3">
         <v>257900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="T43" s="3">
         <v>260800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="U43" s="3">
         <v>381800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="V43" s="3">
         <v>374600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="W43" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,231 +2819,306 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26800</v>
+        <v>48900</v>
       </c>
       <c r="E45" s="3">
-        <v>37800</v>
+        <v>27800</v>
       </c>
       <c r="F45" s="3">
+        <v>80300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>76500</v>
+      </c>
+      <c r="H45" s="3">
+        <v>52900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>43900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K45" s="3">
         <v>36900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="L45" s="3">
         <v>38100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="M45" s="3">
         <v>46000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="N45" s="3">
         <v>62600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="O45" s="3">
         <v>69800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="P45" s="3">
         <v>60700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="Q45" s="3">
         <v>55400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="R45" s="3">
         <v>66100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="S45" s="3">
         <v>74600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="T45" s="3">
         <v>74300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="U45" s="3">
         <v>63000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="V45" s="3">
         <v>92300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="W45" s="3">
         <v>102800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>467300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>354600</v>
+      </c>
+      <c r="F46" s="3">
+        <v>602300</v>
+      </c>
+      <c r="G46" s="3">
+        <v>611200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>601200</v>
+      </c>
+      <c r="I46" s="3">
         <v>621300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="J46" s="3">
         <v>422100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="K46" s="3">
         <v>445300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="L46" s="3">
         <v>462100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="M46" s="3">
         <v>461100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="N46" s="3">
         <v>659100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="O46" s="3">
         <v>660800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="P46" s="3">
         <v>697300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="Q46" s="3">
         <v>720500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="R46" s="3">
         <v>1039000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="S46" s="3">
         <v>941300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="T46" s="3">
         <v>938100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="U46" s="3">
         <v>964500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="V46" s="3">
         <v>1192600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="W46" s="3">
         <v>883800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>16100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="L47" s="3">
         <v>18500</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1541800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1164800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3577100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6431400</v>
+      </c>
+      <c r="H48" s="3">
+        <v>6486600</v>
+      </c>
+      <c r="I48" s="3">
         <v>6535300</v>
       </c>
-      <c r="E48" s="3">
-        <v>7767400</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="J48" s="3">
+        <v>7733900</v>
+      </c>
+      <c r="K48" s="3">
         <v>7844200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="L48" s="3">
         <v>8488500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="M48" s="3">
         <v>8534900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="N48" s="3">
         <v>8480700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="O48" s="3">
         <v>8543400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="P48" s="3">
         <v>8521400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="Q48" s="3">
         <v>9398900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="R48" s="3">
         <v>9489200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="S48" s="3">
         <v>9712300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="T48" s="3">
         <v>9838300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="U48" s="3">
         <v>9944400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="V48" s="3">
         <v>10061900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="W48" s="3">
         <v>11591800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>90700</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>104900</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2590,8 +3144,23 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +3209,23 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +3274,88 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>97000</v>
+        <v>50700</v>
       </c>
       <c r="E52" s="3">
-        <v>85500</v>
+        <v>70500</v>
       </c>
       <c r="F52" s="3">
+        <v>84600</v>
+      </c>
+      <c r="G52" s="3">
+        <v>70100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>99800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>104400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>128500</v>
+      </c>
+      <c r="K52" s="3">
         <v>89900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="L52" s="3">
         <v>91700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="M52" s="3">
         <v>120400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="N52" s="3">
         <v>125100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="O52" s="3">
         <v>196900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="P52" s="3">
         <v>175000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="Q52" s="3">
         <v>148800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="R52" s="3">
         <v>266400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="S52" s="3">
         <v>244700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="T52" s="3">
         <v>248700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="U52" s="3">
         <v>97100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="V52" s="3">
         <v>185600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="W52" s="3">
         <v>108600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3404,88 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2150500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1694900</v>
+      </c>
+      <c r="F54" s="3">
+        <v>4263900</v>
+      </c>
+      <c r="G54" s="3">
+        <v>7112700</v>
+      </c>
+      <c r="H54" s="3">
+        <v>7187500</v>
+      </c>
+      <c r="I54" s="3">
         <v>7261100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="J54" s="3">
         <v>8284500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="K54" s="3">
         <v>8395500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="L54" s="3">
         <v>9060700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="M54" s="3">
         <v>9116300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="N54" s="3">
         <v>9264900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="O54" s="3">
         <v>9401100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="P54" s="3">
         <v>9393700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="Q54" s="3">
         <v>10268100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="R54" s="3">
         <v>10794700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="S54" s="3">
         <v>10898200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="T54" s="3">
         <v>11025100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="U54" s="3">
         <v>11006000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="V54" s="3">
         <v>11440100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="W54" s="3">
         <v>12584100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3504,13 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3529,403 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>96200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>95200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>81100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>94700</v>
+      </c>
+      <c r="I57" s="3">
         <v>87900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="J57" s="3">
         <v>108200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="K57" s="3">
         <v>108800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="L57" s="3">
         <v>118000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="M57" s="3">
         <v>111000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="N57" s="3">
         <v>125600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="O57" s="3">
         <v>103300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="P57" s="3">
         <v>93600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="Q57" s="3">
         <v>94300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="R57" s="3">
         <v>84000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="S57" s="3">
         <v>84000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="T57" s="3">
         <v>86600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="U57" s="3">
         <v>83800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="V57" s="3">
         <v>108200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="W57" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>3953700</v>
+      </c>
+      <c r="I58" s="3">
         <v>261000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="J58" s="3">
         <v>62500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="K58" s="3">
         <v>362500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="L58" s="3">
         <v>300000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="M58" s="3">
         <v>300000</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>249800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="S58" s="3">
         <v>249700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="T58" s="3">
         <v>249500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="U58" s="3">
         <v>249300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="V58" s="3">
         <v>299900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="W58" s="3">
         <v>299800</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>147600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>106800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>123200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>118500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>393500</v>
+      </c>
+      <c r="I59" s="3">
         <v>310800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="J59" s="3">
         <v>346200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="K59" s="3">
         <v>299500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="L59" s="3">
         <v>316700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="M59" s="3">
         <v>184600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="N59" s="3">
         <v>239900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="O59" s="3">
         <v>212500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="P59" s="3">
         <v>243600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="Q59" s="3">
         <v>200200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="R59" s="3">
         <v>259100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="S59" s="3">
         <v>261600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="T59" s="3">
         <v>312300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="U59" s="3">
         <v>216800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="V59" s="3">
         <v>225200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="W59" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>271600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>203000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>218400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>199600</v>
+      </c>
+      <c r="H60" s="3">
+        <v>4442000</v>
+      </c>
+      <c r="I60" s="3">
         <v>659600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="J60" s="3">
         <v>516900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="K60" s="3">
         <v>770700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="L60" s="3">
         <v>734800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="M60" s="3">
         <v>595600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="N60" s="3">
         <v>365500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="O60" s="3">
         <v>315800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="P60" s="3">
         <v>337200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="Q60" s="3">
         <v>294500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="R60" s="3">
         <v>593000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="S60" s="3">
         <v>595300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="T60" s="3">
         <v>648500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="U60" s="3">
         <v>549900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="V60" s="3">
         <v>633300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="W60" s="3">
         <v>684100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>406000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>393500</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>3692500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="J61" s="3">
         <v>3779500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="K61" s="3">
         <v>3577900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="L61" s="3">
         <v>3553100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="M61" s="3">
         <v>3550800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="N61" s="3">
         <v>3877400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="O61" s="3">
         <v>3903000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="P61" s="3">
         <v>3842600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="Q61" s="3">
         <v>3841400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="R61" s="3">
         <v>3795900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="S61" s="3">
         <v>3795300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="T61" s="3">
         <v>3793900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="U61" s="3">
         <v>3792500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="V61" s="3">
         <v>4040200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="W61" s="3">
         <v>3830200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>87100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>95800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4357000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>4404100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>188500</v>
+      </c>
+      <c r="I62" s="3">
         <v>312500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="J62" s="3">
         <v>329100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="K62" s="3">
         <v>331700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="L62" s="3">
         <v>345100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="M62" s="3">
         <v>386100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="N62" s="3">
         <v>367500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="O62" s="3">
         <v>490600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="P62" s="3">
         <v>440800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="Q62" s="3">
         <v>473500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="R62" s="3">
         <v>455100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="S62" s="3">
         <v>542800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="T62" s="3">
         <v>510300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="U62" s="3">
         <v>481700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="V62" s="3">
         <v>299200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="W62" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3974,23 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +4039,23 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +4104,88 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>764700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>692300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4575300</v>
+      </c>
+      <c r="G66" s="3">
+        <v>4603600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>4630500</v>
+      </c>
+      <c r="I66" s="3">
         <v>4664600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="J66" s="3">
         <v>4625500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="K66" s="3">
         <v>4801700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="L66" s="3">
         <v>5024100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="M66" s="3">
         <v>4932800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="N66" s="3">
         <v>5011800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="O66" s="3">
         <v>5113100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="P66" s="3">
         <v>5031500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="Q66" s="3">
         <v>5280200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="R66" s="3">
         <v>5518500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="S66" s="3">
         <v>5611300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="T66" s="3">
         <v>5648700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="U66" s="3">
         <v>5545400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="V66" s="3">
         <v>5681400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="W66" s="3">
         <v>5539200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +4204,13 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +4259,23 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +4324,23 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +4389,23 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +4454,88 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-1070700</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1752000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1802900</v>
+      </c>
+      <c r="I72" s="3">
         <v>1845100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="J72" s="3">
         <v>2907800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="K72" s="3">
         <v>2940600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="L72" s="3">
         <v>3385500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="M72" s="3">
         <v>3537500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="N72" s="3">
         <v>3608400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="O72" s="3">
         <v>3641400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="P72" s="3">
         <v>3721400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="Q72" s="3">
         <v>4351100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="R72" s="3">
         <v>4637700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="S72" s="3">
         <v>4662500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="T72" s="3">
         <v>4759300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="U72" s="3">
         <v>4852600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="V72" s="3">
         <v>5154200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="W72" s="3">
         <v>6457100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4584,23 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4649,23 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4714,88 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1385700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1002600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-311400</v>
+      </c>
+      <c r="G76" s="3">
+        <v>2509000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>2557000</v>
+      </c>
+      <c r="I76" s="3">
         <v>2596500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="J76" s="3">
         <v>3659000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="K76" s="3">
         <v>3593800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="L76" s="3">
         <v>4036600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="M76" s="3">
         <v>4183500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="N76" s="3">
         <v>4253200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="O76" s="3">
         <v>4288000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="P76" s="3">
         <v>4362200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="Q76" s="3">
         <v>4988000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="R76" s="3">
         <v>5276200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="S76" s="3">
         <v>5287000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="T76" s="3">
         <v>5376400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="U76" s="3">
         <v>5460500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="V76" s="3">
         <v>5758700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="W76" s="3">
         <v>7044900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4844,158 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="H80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>232000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-2822700</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1062700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="J81" s="3">
         <v>-32900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="K81" s="3">
         <v>-444900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="L81" s="3">
         <v>-152000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="M81" s="3">
         <v>-70900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="N81" s="3">
         <v>-33100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="O81" s="3">
         <v>-81600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="P81" s="3">
         <v>-628100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="Q81" s="3">
         <v>-142300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="R81" s="3">
         <v>-24700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="S81" s="3">
         <v>-96800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="T81" s="3">
         <v>-93400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="U81" s="3">
         <v>-301700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="V81" s="3">
         <v>-1289400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="W81" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +5014,78 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>43300</v>
+      </c>
+      <c r="F83" s="3">
+        <v>90500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>90600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>89400</v>
+      </c>
+      <c r="I83" s="3">
         <v>103700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="J83" s="3">
         <v>106700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="K83" s="3">
         <v>112800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="L83" s="3">
         <v>111100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="M83" s="3">
         <v>109600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="N83" s="3">
         <v>114200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="O83" s="3">
         <v>113900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="P83" s="3">
         <v>129700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="Q83" s="3">
         <v>128800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="R83" s="3">
         <v>138100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="S83" s="3">
         <v>137600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="T83" s="3">
         <v>136600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="U83" s="3">
         <v>135700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="V83" s="3">
         <v>155200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="W83" s="3">
         <v>155200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +5134,23 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +5199,23 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +5264,23 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +5329,23 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +5394,88 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>36500</v>
+      </c>
+      <c r="G89" s="3">
+        <v>188400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>49100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="J89" s="3">
         <v>218200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="K89" s="3">
         <v>-24000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="L89" s="3">
         <v>33300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="M89" s="3">
         <v>-40800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="N89" s="3">
         <v>128500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="O89" s="3">
         <v>-10600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="Q89" s="3">
         <v>54900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="R89" s="3">
         <v>154900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="S89" s="3">
         <v>44800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="T89" s="3">
         <v>112400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="U89" s="3">
         <v>141900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="V89" s="3">
         <v>165600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="W89" s="3">
         <v>101100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +5494,78 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-59700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="I91" s="3">
         <v>-36500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="J91" s="3">
         <v>-46200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="K91" s="3">
         <v>-70200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="L91" s="3">
         <v>-55600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="M91" s="3">
         <v>-96800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="N91" s="3">
         <v>-45500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="O91" s="3">
         <v>-73500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="P91" s="3">
         <v>-42100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="Q91" s="3">
         <v>-33800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="R91" s="3">
         <v>-36800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="S91" s="3">
         <v>-25400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="T91" s="3">
         <v>-30200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="U91" s="3">
         <v>-18700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="V91" s="3">
         <v>-727800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="W91" s="3">
         <v>-351000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +5614,23 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +5679,88 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="I94" s="3">
         <v>-36500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="J94" s="3">
         <v>-42900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="K94" s="3">
         <v>-70200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="L94" s="3">
         <v>-54100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="M94" s="3">
         <v>-88900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="N94" s="3">
         <v>-44200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="O94" s="3">
         <v>-73100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="P94" s="3">
         <v>-38400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="Q94" s="3">
         <v>-33700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="R94" s="3">
         <v>-32900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="S94" s="3">
         <v>-18100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="T94" s="3">
         <v>-29200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="U94" s="3">
         <v>-38100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="V94" s="3">
         <v>-60000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="W94" s="3">
         <v>-472200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5779,13 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,10 +5832,25 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5899,23 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5964,23 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +6029,88 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-191200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I100" s="3">
         <v>108600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="J100" s="3">
         <v>-206700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="K100" s="3">
         <v>76400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="L100" s="3">
         <v>-12500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="M100" s="3">
         <v>-57900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="N100" s="3">
         <v>-35400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="O100" s="3">
         <v>-800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="P100" s="3">
         <v>-10700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="Q100" s="3">
         <v>-222400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="R100" s="3">
         <v>-30600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="S100" s="3">
         <v>-20900</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-309700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="V100" s="3">
         <v>196300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="W100" s="3">
         <v>-28200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +6159,84 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-248000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>26200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>146300</v>
+      </c>
+      <c r="H102" s="3">
+        <v>15300</v>
+      </c>
+      <c r="I102" s="3">
         <v>71300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="J102" s="3">
         <v>-31400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="K102" s="3">
         <v>-17800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="L102" s="3">
         <v>-33300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="M102" s="3">
         <v>-187500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="N102" s="3">
         <v>48900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="O102" s="3">
         <v>-84500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="P102" s="3">
         <v>-50200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="Q102" s="3">
         <v>-201200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="R102" s="3">
         <v>54100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="S102" s="3">
         <v>5800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="T102" s="3">
         <v>83200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="U102" s="3">
         <v>-206000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="V102" s="3">
         <v>299700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="W102" s="3">
         <v>-396900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>NE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,320 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>208200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>250400</v>
+      </c>
+      <c r="F8" s="3">
         <v>219300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>169900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>203200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>241800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>237900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>281300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>454100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>275500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>292900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>282900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>309900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>279400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>258400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>235200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>329600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>266200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>278100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>363000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>410200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>385200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>196800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>205000</v>
+      </c>
+      <c r="F9" s="3">
         <v>206800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>136700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>131800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>150500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>160500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>172800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>192300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>189700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>184200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>181100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>193400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>172700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>159700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>141200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>158400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>169900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>167200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>165900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>182900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45400</v>
+      </c>
+      <c r="F10" s="3">
         <v>12500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>33200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>71400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>91300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>77400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>108500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>261800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>85800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>108700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>101800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>116500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>106700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>98700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>94000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>171200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>96300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>110900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>197100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>227300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>168900</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1002,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1069,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,138 +1140,156 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-57700</v>
+        <v>20800</v>
       </c>
       <c r="E14" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G14" s="3">
         <v>-252100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>2810800</v>
       </c>
-      <c r="G14" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="H14" s="3">
-        <v>600</v>
-      </c>
       <c r="I14" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K14" s="3">
         <v>1119500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>19800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>596200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-31300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>2400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>792800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>8800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>121600</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>1435400</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F15" s="3">
         <v>25300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>34900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>90500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>90600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>89400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>103700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>106700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>112800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>111100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>109600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>114200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>113900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>129700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>128800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>138100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>137600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>136600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>135700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>155200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>155200</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1310,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>199400</v>
+        <v>70900</v>
       </c>
       <c r="E17" s="3">
+        <v>263900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>263900</v>
+      </c>
+      <c r="G17" s="3">
         <v>-65200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3047800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>251900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>334000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1413900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>337800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>916200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>411600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>275400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>324800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>301100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1104000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>300800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>439900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>322800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>322400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>317500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1788300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>387400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>19900</v>
+        <v>137300</v>
       </c>
       <c r="E18" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="G18" s="3">
         <v>235100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2844600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-10100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-96100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1132600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>116300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-640700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-118700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>7500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-14900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-21700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-845600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-65600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-110300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-56600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-44300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>45500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1378100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1479,365 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6600</v>
+        <v>1300</v>
       </c>
       <c r="E20" s="3">
+        <v>900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>71000</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>7900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>3100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>1600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>177700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>27100</v>
+      </c>
+      <c r="F21" s="3">
         <v>66000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>278800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2753600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>88400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1031200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>224800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-528100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-5700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>119500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>100800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>94700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-713100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>64400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>29600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>82400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>95400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>182800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1221500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>153600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F22" s="3">
         <v>7900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>7100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>23400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>70300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>70900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>71200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>69000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>69000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>70200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>73700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>73700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>74100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>76000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>72400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>72900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>73200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>73400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>55900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>130400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="F23" s="3">
         <v>18600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>228400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2844200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-25600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-163400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1205700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>46800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-709800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-185800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-60300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-87100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-92800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-916900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-140300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-180900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-128100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-114400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-26400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1432600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-54200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-3600</v>
       </c>
-      <c r="F24" s="3">
-        <v>-21500</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="I24" s="3">
         <v>25300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-121200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-143000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-2800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-37200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-56300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-14500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-38800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>3000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-59000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-28600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-18200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>257400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-149500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1901,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>123400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="F26" s="3">
         <v>20400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>232000</v>
       </c>
-      <c r="F26" s="3">
-        <v>-2822700</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-2819100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-50900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-42200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1062700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>48200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-707000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-148600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-63100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-30800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-78400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-878000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-143300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-122000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-99500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-96200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-283800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1283200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-44200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>123400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="F27" s="3">
         <v>20400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>232000</v>
       </c>
-      <c r="F27" s="3">
-        <v>-2822700</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-2819100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-50900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-42200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1062700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-32900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-444900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-152000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-67100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-33100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-81600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-628100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-142300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-133700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-96800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-91900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-301700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1289400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,13 +2114,19 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -2016,56 +2137,62 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="T29" s="3">
+        <v>109000</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>109000</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2256,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2327,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6600</v>
+        <v>-1300</v>
       </c>
       <c r="E32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-7900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-3100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-1600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>123400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="F33" s="3">
         <v>20400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>232000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2822700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-50900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-42200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1062700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-32900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-444900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-152000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-70900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-33100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-81600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-628100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-142300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-24700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-96800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-93400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-301700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1289400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2540,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>123400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="F35" s="3">
         <v>20400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>232000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2822700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-50900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-42200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1062700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-32900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-444900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-152000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-70900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-33100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-81600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-628100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-142300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-24700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-96800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-93400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-301700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1289400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2718,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2745,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>194100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>112200</v>
+      </c>
+      <c r="F41" s="3">
         <v>161200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>116300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>343300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>325100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>191200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>175900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>104600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>136000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>153800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>187100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>375200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>326300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>411500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>461700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>662800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>608800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>603000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>519800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>725700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,73 +2883,85 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>257200</v>
+        <v>222200</v>
       </c>
       <c r="E43" s="3">
-        <v>210400</v>
+        <v>261400</v>
       </c>
       <c r="F43" s="3">
-        <v>178600</v>
+        <v>260800</v>
       </c>
       <c r="G43" s="3">
-        <v>209600</v>
+        <v>211300</v>
       </c>
       <c r="H43" s="3">
-        <v>357100</v>
+        <v>189300</v>
       </c>
       <c r="I43" s="3">
+        <v>220400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>370300</v>
+      </c>
+      <c r="K43" s="3">
         <v>401500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>258400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>272400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>270200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>228000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>221200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>264700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>225000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>203300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>310000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>257900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>260800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>381800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>374600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,143 +3025,161 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>48900</v>
+        <v>39300</v>
       </c>
       <c r="E45" s="3">
-        <v>27800</v>
+        <v>47300</v>
       </c>
       <c r="F45" s="3">
-        <v>80300</v>
+        <v>45300</v>
       </c>
       <c r="G45" s="3">
-        <v>76500</v>
+        <v>27000</v>
       </c>
       <c r="H45" s="3">
-        <v>52900</v>
+        <v>69600</v>
       </c>
       <c r="I45" s="3">
+        <v>65700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>39700</v>
+      </c>
+      <c r="K45" s="3">
         <v>43900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>59100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>36900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>38100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>46000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>62600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>69800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>60700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>55400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>66100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>74600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>74300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>63000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>92300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>102800</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>455600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>420900</v>
+      </c>
+      <c r="F46" s="3">
         <v>467300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>354600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>602300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>611200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>601200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>621300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>422100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>445300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>462100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>461100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>659100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>660800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>697300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>720500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1039000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>941300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>938100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>964500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1192600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>883800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -2982,25 +3191,25 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>16100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>18500</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -3011,11 +3220,11 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3029,87 +3238,99 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1495800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1462100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1541800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1164800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3577100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>6431400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>6486600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>6535300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>7733900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>7844200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>8488500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>8534900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>8480700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>8543400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>8521400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>9398900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>9489200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>9712300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>9838300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>9944400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>10061900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>11591800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>76300</v>
+      </c>
+      <c r="F49" s="3">
         <v>90700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>104900</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
@@ -3120,11 +3341,11 @@
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -3159,8 +3380,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3451,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3522,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>135500</v>
+      </c>
+      <c r="F52" s="3">
         <v>50700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>70500</v>
       </c>
-      <c r="F52" s="3">
-        <v>84600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>70100</v>
-      </c>
       <c r="H52" s="3">
-        <v>99800</v>
+        <v>81400</v>
       </c>
       <c r="I52" s="3">
+        <v>65500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>93600</v>
+      </c>
+      <c r="K52" s="3">
         <v>104400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>128500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>89900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>91700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>120400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>125100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>196900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>175000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>148800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>266400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>244700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>248700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>97100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>185600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>108600</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3664,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2073400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2094800</v>
+      </c>
+      <c r="F54" s="3">
         <v>2150500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1694900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4263900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7112700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7187500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7261100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8284500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8395500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>9060700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>9116300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>9264900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>9401100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>9393700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>10268100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>10794700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>10898200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>11025100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>11006000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>11440100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>12584100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3766,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3793,81 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>120400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>106400</v>
+      </c>
+      <c r="F57" s="3">
         <v>124000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>96200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>95200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>81100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>94700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>87900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>108200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>108800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>118000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>111000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>125600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>103300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>93600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>94300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>84000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>84000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>86600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>83800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>108200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3610,36 +3877,36 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>3953700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>261000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>62500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>362500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>300000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>300000</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
@@ -3647,285 +3914,315 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>249800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>249700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>249500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>249300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>299900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>299800</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>135100</v>
+      </c>
+      <c r="F59" s="3">
         <v>147600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>106800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>123200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>118500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>393500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>310800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>346200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>299500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>316700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>184600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>239900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>212500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>243600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>200200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>259100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>261600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>312300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>216800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>225200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>248400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>241500</v>
+      </c>
+      <c r="F60" s="3">
         <v>271600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>203000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>218400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>199600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4442000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>659600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>516900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>770700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>734800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>595600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>365500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>315800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>337200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>294500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>593000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>595300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>648500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>549900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>633300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>684100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E61" s="3">
         <v>406000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>406000</v>
+      </c>
+      <c r="G61" s="3">
         <v>393500</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>3997900</v>
       </c>
       <c r="I61" s="3">
+        <v>3977900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>3692500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3779500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3577900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3553100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3550800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3877400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3903000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>3842600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>3841400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>3795900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>3795300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>3793900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>3792500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>4040200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>3830200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>108400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>80600</v>
+      </c>
+      <c r="F62" s="3">
         <v>87100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>95800</v>
       </c>
-      <c r="F62" s="3">
-        <v>4357000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>4404100</v>
-      </c>
       <c r="H62" s="3">
+        <v>359000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>426100</v>
+      </c>
+      <c r="J62" s="3">
         <v>188500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>312500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>329100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>331700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>345100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>386100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>367500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>490600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>440800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>473500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>455100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>542800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>510300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>481700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>299200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4286,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4357,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4428,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>572800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>728100</v>
+      </c>
+      <c r="F66" s="3">
         <v>764700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>692300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4575300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4603600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4630500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4664600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4625500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4801700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5024100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4932800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5011800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5113100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5031500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5280200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>5518500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5611300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>5648700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>5545400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>5681400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>5539200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4530,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4597,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4668,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4739,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4810,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F72" s="3">
         <v>2200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-18200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1070700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1752000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1802900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1845100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2907800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2940600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>3385500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3537500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>3608400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>3641400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>3721400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>4351100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>4637700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>4662500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>4759300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>4852600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>5154200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>6457100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4952,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5023,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5094,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1500600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1366700</v>
+      </c>
+      <c r="F76" s="3">
         <v>1385700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1002600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-311400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2509000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2557000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2596500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3659000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3593800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4036600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4183500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4253200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4288000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4362200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4988000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>5276200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>5287000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>5376400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>5460500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>5758700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>7044900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5236,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>123400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="F81" s="3">
         <v>20400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>232000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2822700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-50900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-42200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1062700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-32900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-444900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-152000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-70900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-33100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-81600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-628100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-142300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-24700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-96800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-93400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-301700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1289400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5414,81 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>39700</v>
+      </c>
+      <c r="F83" s="3">
         <v>39600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>43300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>90500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>90600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>89400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>103700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>106700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>112800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>111100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>109600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>114200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>113900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>129700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>128800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>138100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>137600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>136600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>135700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>155200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>155200</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5552,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5623,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5694,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5765,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5836,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F89" s="3">
         <v>12700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-27300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>36500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>188400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>49100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>218200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-24000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>33300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-40800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>128500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-10600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>54900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>154900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>44800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>112400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>141900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>165600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>101100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5938,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-59700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-30000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-36300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-43200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-32900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-36500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-46200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-70200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-55600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-96800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-45500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-73500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-42100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-33800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-36800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-25400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-30200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-18700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-727800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-351000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6076,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +6147,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>239400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="F94" s="3">
         <v>26000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-29500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-10300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-42000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-32700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-36500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-42900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-70200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-54100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-88900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-44200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-73100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-38400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-33700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-32900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-18100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-29200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-38100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-60000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-472200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6249,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5847,10 +6314,16 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6387,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6458,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6529,85 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-189900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>12800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-191200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>108600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-206700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>76400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-12500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-57900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-35400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-222400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-30600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-20900</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-309700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>196300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-28200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6671,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-48900</v>
+      </c>
+      <c r="F102" s="3">
         <v>51500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-248000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>26200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>146300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>15300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>71300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-31400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-17800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-33300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-187500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>48900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-84500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-50200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-201200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>54100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>5800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>83200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-206000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>299700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-396900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>NE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>210200</v>
+      </c>
+      <c r="E8" s="3">
         <v>208200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>250400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>219300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>169900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>203200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>241800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>237900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>281300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>454100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>275500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>292900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>282900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>309900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>279400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>258400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>235200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>329600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>266200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>278100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>363000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>410200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>385200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>179600</v>
+      </c>
+      <c r="E9" s="3">
         <v>196800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>205000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>206800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>136700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>131800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>150500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>160500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>172800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>192300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>189700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>184200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>181100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>193400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>172700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>159700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>141200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>158400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>169900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>167200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>165900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>182900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E10" s="3">
         <v>11400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>45400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>33200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>71400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>91300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>77400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>108500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>261800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>85800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>108700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>101800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>116500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>106700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>98700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>94000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>171200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>96300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>110900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>197100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>227300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>168900</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,65 +1163,68 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E14" s="3">
         <v>20800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>18600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-252100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2810800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-4900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1119500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>19800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>596200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-31300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>792800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>8800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>121600</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1212,84 +1232,90 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>1435400</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E15" s="3">
         <v>24700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>25200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>25300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>34900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>90500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>90600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>89400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>103700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>106700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>112800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>111100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>109600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>114200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>113900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>129700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>128800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>138100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>137600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>136600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>135700</v>
-      </c>
-      <c r="X15" s="3">
-        <v>155200</v>
       </c>
       <c r="Y15" s="3">
         <v>155200</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>155200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>244900</v>
+      </c>
+      <c r="E17" s="3">
         <v>70900</v>
-      </c>
-      <c r="E17" s="3">
-        <v>263900</v>
       </c>
       <c r="F17" s="3">
         <v>263900</v>
       </c>
       <c r="G17" s="3">
+        <v>263900</v>
+      </c>
+      <c r="H17" s="3">
         <v>-65200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3047800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>251900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>334000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1413900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>337800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>916200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>411600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>275400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>324800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>301100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1104000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>439900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>322800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>322400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>317500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1788300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>387400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E18" s="3">
         <v>137300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-44600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>235100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2844600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-96100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1132600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>116300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-640700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-118700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-21700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-845600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-65600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-110300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-56600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-44300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>45500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1378100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>71000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E21" s="3">
         <v>177700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>27100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>66000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>278800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2753600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>88400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1031200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>224800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-528100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>119500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>100800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>94700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-713100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>64400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>29600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>82400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>95400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>182800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1221500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>153600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E22" s="3">
         <v>8100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>70300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>70900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>71200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>69000</v>
       </c>
       <c r="N22" s="3">
         <v>69000</v>
       </c>
       <c r="O22" s="3">
+        <v>69000</v>
+      </c>
+      <c r="P22" s="3">
         <v>70200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>73700</v>
       </c>
       <c r="Q22" s="3">
         <v>73700</v>
       </c>
       <c r="R22" s="3">
+        <v>73700</v>
+      </c>
+      <c r="S22" s="3">
         <v>74100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>76000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>72400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>72900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>73200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>73400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>55900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="E23" s="3">
         <v>130400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>18600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>228400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2844200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-25600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-163400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1205700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>46800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-709800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-185800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-60300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-87100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-92800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-916900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-140300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-180900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-128100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-114400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-26400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1432600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-54200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E24" s="3">
         <v>7000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-25100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>25300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-121200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-143000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-37200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-56300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-14500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-38800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-59000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-28600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-18200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>257400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-149500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E26" s="3">
         <v>123400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>20400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>232000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2819100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-50900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-42200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1062700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>48200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-707000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-148600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-63100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-30800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-78400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-878000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-143300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-122000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-99500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-96200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-283800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1283200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-44200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E27" s="3">
         <v>123400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>20400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>232000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2819100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-50900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-42200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1062700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-32900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-444900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-152000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-67100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-33100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-81600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-628100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-142300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-133700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-96800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-91900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-301700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1289400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,16 +2178,19 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -2137,21 +2198,21 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>-3600</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -2159,40 +2220,43 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-3800</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>109000</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-1500</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-71000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E33" s="3">
         <v>123400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>20400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>232000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2822700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-50900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-42200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1062700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-32900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-444900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-152000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-70900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-33100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-81600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-628100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-142300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-24700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-96800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-93400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-301700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1289400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E35" s="3">
         <v>123400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>20400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>232000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2822700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-50900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-42200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1062700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-32900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-444900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-152000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-70900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-33100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-81600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-628100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-142300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-24700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-96800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-93400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-301700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1289400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>105200</v>
+      </c>
+      <c r="E41" s="3">
         <v>194100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>112200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>161200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>116300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>343300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>325100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>191200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>175900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>104600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>136000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>153800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>187100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>375200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>326300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>411500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>461700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>662800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>608800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>603000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>519800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>725700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,79 +2979,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>274600</v>
+      </c>
+      <c r="E43" s="3">
         <v>222200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>261400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>260800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>211300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>189300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>220400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>370300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>401500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>258400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>272400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>270200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>228000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>221200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>264700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>225000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>203300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>310000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>257900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>260800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>381800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>374600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,158 +3127,167 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E45" s="3">
         <v>39300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>47300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>45300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>69600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>65700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>39700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>43900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>59100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>36900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>38100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>46000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>62600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>69800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>60700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>55400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>66100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>74600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>74300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>63000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>92300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>102800</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>418000</v>
+      </c>
+      <c r="E46" s="3">
         <v>455600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>420900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>467300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>354600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>602300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>611200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>601200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>621300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>422100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>445300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>462100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>461100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>659100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>660800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>697300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>720500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1039000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>941300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>938100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>964500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1192600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>883800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -3191,28 +3296,28 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>3200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6200</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>16100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>18500</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
@@ -3226,8 +3331,8 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3244,96 +3349,102 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1491600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1495800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1462100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1541800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1164800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3577100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6431400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6486600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6535300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7733900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7844200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8488500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8534900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8480700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8543400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8521400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9398900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>9489200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>9712300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>9838300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>9944400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>10061900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>11591800</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E49" s="3">
         <v>61800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>76300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>90700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>104900</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
@@ -3347,8 +3458,8 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E52" s="3">
         <v>60200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>135500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>50700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>70500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>81400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>65500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>93600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>104400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>128500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>89900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>91700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>120400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>125100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>196900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>175000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>148800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>266400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>244700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>248700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>97100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>185600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>108600</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2033400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2073400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2094800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2150500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1694900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4263900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7112700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7187500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7261100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8284500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8395500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9060700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9116300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9264900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9401100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9393700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10268100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10794700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10898200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11025100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11006000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11440100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12584100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,79 +3925,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>122200</v>
+      </c>
+      <c r="E57" s="3">
         <v>120400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>106400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>124000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>96200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>95200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>81100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>94700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>87900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>108200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>108800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>118000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>111000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>125600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>103300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>93600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>94300</v>
-      </c>
-      <c r="T57" s="3">
-        <v>84000</v>
       </c>
       <c r="U57" s="3">
         <v>84000</v>
       </c>
       <c r="V57" s="3">
+        <v>84000</v>
+      </c>
+      <c r="W57" s="3">
         <v>86600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>83800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>108200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3883,32 +4017,32 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>3953700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>261000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>62500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>362500</v>
-      </c>
-      <c r="N58" s="3">
-        <v>300000</v>
       </c>
       <c r="O58" s="3">
         <v>300000</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3920,167 +4054,176 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>249800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>249700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>249500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>249300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>299900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>299800</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>111800</v>
+      </c>
+      <c r="E59" s="3">
         <v>128000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>135100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>147600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>106800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>123200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>118500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>393500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>310800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>346200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>299500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>316700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>184600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>239900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>212500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>243600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>200200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>259100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>261600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>312300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>216800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>225200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>234100</v>
+      </c>
+      <c r="E60" s="3">
         <v>248400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>241500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>271600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>203000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>218400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>199600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4442000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>659600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>516900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>770700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>734800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>595600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>365500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>315800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>337200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>294500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>593000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>595300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>648500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>549900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>633300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>684100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4088,141 +4231,147 @@
         <v>216000</v>
       </c>
       <c r="E61" s="3">
-        <v>406000</v>
+        <v>216000</v>
       </c>
       <c r="F61" s="3">
         <v>406000</v>
       </c>
       <c r="G61" s="3">
+        <v>406000</v>
+      </c>
+      <c r="H61" s="3">
         <v>393500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3997900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3977900</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>3692500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3779500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3577900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3553100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3550800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3877400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3903000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3842600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3841400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3795900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3795300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3793900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3792500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4040200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3830200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>117800</v>
+      </c>
+      <c r="E62" s="3">
         <v>108400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>80600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>87100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>95800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>359000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>426100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>188500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>312500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>329100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>331700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>345100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>386100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>367500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>490600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>440800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>473500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>455100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>542800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>510300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>481700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>299200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>567900</v>
+      </c>
+      <c r="E66" s="3">
         <v>572800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>728100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>764700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>692300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4575300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4603600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4630500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4664600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4625500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4801700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5024100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4932800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5011800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5113100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5031500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5280200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5518500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5611300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5648700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5545400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5681400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5539200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E72" s="3">
         <v>102000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-21500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1070700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1752000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1802900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1845100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2907800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2940600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3385500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3537500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3608400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3641400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3721400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4351100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4637700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4662500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4759300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4852600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5154200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6457100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1465500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1500600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1366700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1385700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1002600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-311400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2509000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2557000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2596500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3659000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3593800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4036600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4183500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4253200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4288000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4362200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4988000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5276200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5287000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5376400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5460500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5758700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7044900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E81" s="3">
         <v>123400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>20400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>232000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2822700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-50900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-42200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1062700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-32900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-444900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-152000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-70900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-33100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-81600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-628100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-142300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-24700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-96800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-93400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-301700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1289400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E83" s="3">
         <v>39100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>39700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>39600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>43300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>90500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>90600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>89400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>103700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>106700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>112800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>111100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>109600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>114200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>113900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>129700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>128800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>138100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>137600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>136600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>135700</v>
-      </c>
-      <c r="X83" s="3">
-        <v>155200</v>
       </c>
       <c r="Y83" s="3">
         <v>155200</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>155200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="E89" s="3">
         <v>27600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-27300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>36500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>188400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>49100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>218200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-24000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>33300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-40800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>128500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-10600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>54900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>154900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>44800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>112400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>141900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>165600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>101100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-36700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-42700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-59700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-30000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-36300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-43200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-32900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-36500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-46200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-70200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-55600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-96800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-45500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-73500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-42100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-33800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-36800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-25400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-30200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-18700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-727800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-351000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E94" s="3">
         <v>239400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-42500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>26000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-42000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-32700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-36500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-42900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-70200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-54100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-88900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-44200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-73100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-38400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-33700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-32900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-18100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-29200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-38100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-60000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-472200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6320,10 +6554,13 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-189900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>12800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-191200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>108600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-206700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>76400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-12500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-57900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-35400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-10700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-222400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-30600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-20900</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-309700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>196300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-28200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-89400</v>
+      </c>
+      <c r="E102" s="3">
         <v>77100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-48900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>51500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-248000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>26200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>146300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>15300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>71300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-31400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-17800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-33300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-187500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>48900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-84500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-50200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-201200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>54100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>83200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-206000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>299700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-396900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>NE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>275200</v>
+      </c>
+      <c r="E8" s="3">
         <v>210200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>208200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>250400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>219300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>169900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>203200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>241800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>237900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>281300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>454100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>275500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>292900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>282900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>309900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>279400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>258400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>235200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>329600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>266200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>278100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>363000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>410200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>385200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>188500</v>
+      </c>
+      <c r="E9" s="3">
         <v>179600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>196800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>205000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>206800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>136700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>131800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>150500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>160500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>172800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>192300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>189700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>184200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>181100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>193400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>172700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>159700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>141200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>158400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>169900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>167200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>165900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>182900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>86700</v>
+      </c>
+      <c r="E10" s="3">
         <v>30600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>45400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>33200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>71400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>91300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>77400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>108500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>261800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>85800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>108700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>101800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>116500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>106700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>98700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>94000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>171200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>96300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>110900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>197100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>227300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>168900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,68 +1183,71 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E14" s="3">
         <v>26700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>20800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>18600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-252100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2810800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-4900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1119500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>19800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>596200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-31300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>792800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>8800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>121600</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1235,87 +1255,93 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>1435400</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E15" s="3">
         <v>25600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>24700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>25200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>25300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>34900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>90500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>90600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>89400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>103700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>106700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>112800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>111100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>109600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>114200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>113900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>129700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>128800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>138100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>137600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>136600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>135700</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>155200</v>
       </c>
       <c r="Z15" s="3">
         <v>155200</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>155200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>227600</v>
+      </c>
+      <c r="E17" s="3">
         <v>244900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>70900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>263900</v>
       </c>
       <c r="G17" s="3">
         <v>263900</v>
       </c>
       <c r="H17" s="3">
+        <v>263900</v>
+      </c>
+      <c r="I17" s="3">
         <v>-65200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3047800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>251900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>334000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1413900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>337800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>916200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>411600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>275400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>324800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>301100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1104000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>439900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>322800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>322400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>317500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1788300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>387400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-34700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>137300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-44600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>235100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2844600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-96100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1132600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>116300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-640700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-118700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-14900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-21700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-845600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-65600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-110300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-56600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-44300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>45500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1378100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>71000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>89600</v>
+      </c>
+      <c r="E21" s="3">
         <v>5500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>177700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>27100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>66000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>278800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2753600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>88400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1031200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>224800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-528100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>119500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>100800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>94700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-713100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>64400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>29600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>82400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>95400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>182800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1221500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>153600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1672,221 +1712,230 @@
         <v>7700</v>
       </c>
       <c r="E22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F22" s="3">
         <v>8100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>70300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>70900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>71200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>69000</v>
       </c>
       <c r="O22" s="3">
         <v>69000</v>
       </c>
       <c r="P22" s="3">
+        <v>69000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>70200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>73700</v>
       </c>
       <c r="R22" s="3">
         <v>73700</v>
       </c>
       <c r="S22" s="3">
+        <v>73700</v>
+      </c>
+      <c r="T22" s="3">
         <v>74100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>76000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>72400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>72900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>73200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>73400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>55900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-41900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>130400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>18600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>228400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2844200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-25600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-163400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1205700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>46800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-709800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-185800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-60300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-87100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-92800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-916900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-140300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-180900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-128100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-114400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-26400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1432600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-54200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-25100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>25300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-121200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-143000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-37200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-56300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-14500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-38800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-59000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-28600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-18200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>257400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-149500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-36700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>123400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>20400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>232000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2819100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-50900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-42200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1062700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>48200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-707000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-148600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-63100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-30800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-78400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-878000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-143300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-122000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-99500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-96200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-283800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1283200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-44200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-36700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>123400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>20400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>232000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2819100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-50900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-42200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1062700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-32900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-444900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-152000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-67100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-33100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-81600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-628100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-142300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-133700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-96800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-91900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-301700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1289400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,19 +2239,22 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -2201,21 +2262,21 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-3600</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -2223,40 +2284,43 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>109000</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-1500</v>
       </c>
-      <c r="X29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-71000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-36700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>123400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>20400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>232000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2822700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-50900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-42200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1062700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-32900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-444900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-152000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-70900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-33100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-81600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-628100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-142300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-24700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-96800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-93400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-301700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1289400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-36700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>123400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>20400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>232000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2822700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-50900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-42200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1062700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-32900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-444900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-152000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-70900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-33100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-81600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-628100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-142300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-24700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-96800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-93400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-301700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1289400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>160200</v>
+      </c>
+      <c r="E41" s="3">
         <v>105200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>194100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>112200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>161200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>116300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>343300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>325100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>191200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>175900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>104600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>136000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>153800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>187100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>375200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>326300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>411500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>461700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>662800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>608800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>603000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>519800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>725700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,82 +3072,88 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>283900</v>
+      </c>
+      <c r="E43" s="3">
         <v>274600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>222200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>261400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>260800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>211300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>189300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>220400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>370300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>401500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>258400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>272400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>270200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>228000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>221200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>264700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>225000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>203300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>310000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>257900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>260800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>381800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>374600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,156 +3226,165 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E45" s="3">
         <v>38200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>39300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>47300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>45300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>27000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>69600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>65700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>39700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>43900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>59100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>36900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>38100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>46000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>62600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>69800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>60700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>55400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>66100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>74600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>74300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>63000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>92300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>102800</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>480700</v>
+      </c>
+      <c r="E46" s="3">
         <v>418000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>455600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>420900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>467300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>354600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>602300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>611200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>601200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>621300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>422100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>445300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>462100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>461100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>659100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>660800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>697300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>720500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1039000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>941300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>938100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>964500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1192600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>883800</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3289,8 +3394,8 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -3299,28 +3404,28 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>3200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6200</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>16100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>18500</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
@@ -3334,8 +3439,8 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3352,102 +3457,108 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1496500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1491600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1495800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1462100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1541800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1164800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3577100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6431400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6486600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6535300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7733900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7844200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8488500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8534900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8480700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8543400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8521400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>9398900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>9489200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>9712300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>9838300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>9944400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>10061900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>11591800</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E49" s="3">
         <v>47800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>61800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>76300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>90700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>104900</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -3461,8 +3572,8 @@
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>87300</v>
+      </c>
+      <c r="E52" s="3">
         <v>76100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>60200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>135500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>50700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>70500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>81400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>65500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>93600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>104400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>128500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>89900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>91700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>120400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>125100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>196900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>175000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>148800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>266400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>244700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>248700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>97100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>185600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>108600</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2097900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2033400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2073400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2094800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2150500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1694900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4263900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7112700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7187500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7261100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8284500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8395500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9060700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9116300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9264900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9401100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9393700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10268100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10794700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10898200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11025100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11006000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>11440100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12584100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,99 +4056,103 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>136100</v>
+      </c>
+      <c r="E57" s="3">
         <v>122200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>120400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>106400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>124000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>96200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>95200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>81100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>94700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>87900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>108200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>108800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>118000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>111000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>125600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>103300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>93600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>94300</v>
-      </c>
-      <c r="U57" s="3">
-        <v>84000</v>
       </c>
       <c r="V57" s="3">
         <v>84000</v>
       </c>
       <c r="W57" s="3">
+        <v>84000</v>
+      </c>
+      <c r="X57" s="3">
         <v>86600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>83800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>108200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -4027,25 +4161,25 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>3953700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>261000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>62500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>362500</v>
-      </c>
-      <c r="O58" s="3">
-        <v>300000</v>
       </c>
       <c r="P58" s="3">
         <v>300000</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4057,173 +4191,182 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>249800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>249700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>249500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>249300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>299900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>299800</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>111500</v>
+      </c>
+      <c r="E59" s="3">
         <v>111800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>128000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>135100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>147600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>106800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>123200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>118500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>393500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>310800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>346200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>299500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>316700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>184600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>239900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>212500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>243600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>200200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>259100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>261600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>312300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>216800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>225200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>247600</v>
+      </c>
+      <c r="E60" s="3">
         <v>234100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>248400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>241500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>271600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>203000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>218400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>199600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4442000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>659600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>516900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>770700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>734800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>595600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>365500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>315800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>337200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>294500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>593000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>595300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>648500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>549900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>633300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>684100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4234,144 +4377,150 @@
         <v>216000</v>
       </c>
       <c r="F61" s="3">
-        <v>406000</v>
+        <v>216000</v>
       </c>
       <c r="G61" s="3">
         <v>406000</v>
       </c>
       <c r="H61" s="3">
+        <v>406000</v>
+      </c>
+      <c r="I61" s="3">
         <v>393500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3997900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3977900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>3692500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3779500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3577900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3553100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3550800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3877400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3903000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3842600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3841400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3795900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3795300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3793900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3792500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4040200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3830200</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>125500</v>
+      </c>
+      <c r="E62" s="3">
         <v>117800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>108400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>80600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>87100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>95800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>359000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>426100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>188500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>312500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>329100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>331700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>345100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>386100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>367500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>490600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>440800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>473500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>455100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>542800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>510300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>481700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>299200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>589200</v>
+      </c>
+      <c r="E66" s="3">
         <v>567900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>572800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>728100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>764700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>692300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4575300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4603600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4630500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4664600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4625500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4801700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5024100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4932800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5011800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5113100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5031500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5280200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5518500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5611300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5648700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5545400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5681400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5539200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>102400</v>
+      </c>
+      <c r="E72" s="3">
         <v>65300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>102000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-21500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1070700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1752000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1802900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1845100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2907800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2940600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3385500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3537500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3608400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3641400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3721400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4351100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4637700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4662500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4759300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4852600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5154200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6457100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1508800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1465500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1500600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1366700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1385700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1002600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-311400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2509000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2557000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2596500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3659000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3593800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4036600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4183500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4253200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4288000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4362200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4988000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5276200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5287000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5376400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5460500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>5758700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7044900</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-36700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>123400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>20400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>232000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2822700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-50900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-42200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1062700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-32900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-444900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-152000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-70900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-33100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-81600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-628100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-142300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-24700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-96800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-93400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-301700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1289400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E83" s="3">
         <v>39700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>39100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>39700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>39600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>43300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>90500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>90600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>89400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>103700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>106700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>112800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>111100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>109600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>114200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>113900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>129700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>128800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>138100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>137600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>136600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>135700</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>155200</v>
       </c>
       <c r="Z83" s="3">
         <v>155200</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>155200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-51800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>27600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-27300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>36500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>188400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>49100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>218200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-24000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>33300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-40800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>128500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-10600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>54900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>154900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>44800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>112400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>141900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>165600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>101100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-47000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-36700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-42700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-59700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-30000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-36300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-43200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-32900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-36500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-46200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-70200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-55600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-96800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-45500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-73500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-42100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-33800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-36800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-25400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-30200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-18700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-727800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-351000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-32800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>239400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-42500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>26000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-29500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-42000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-32700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-36500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-42900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-70200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-54100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-88900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-44200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-73100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-38400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-33700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-32900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-18100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-29200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-38100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-60000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-472200</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6557,10 +6791,13 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-189900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>12800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-191200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>108600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-206700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>76400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-12500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-57900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-35400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-10700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-222400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-30600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-20900</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-309700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>196300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-28200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-89400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>77100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-48900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>51500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-248000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>26200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>146300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>71300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-31400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-17800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-33300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-187500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>48900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-84500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-50200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-201200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>54100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>83200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-206000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>299700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-396900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>NE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>305900</v>
+      </c>
+      <c r="E8" s="3">
         <v>275200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>210200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>208200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>250400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>219300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>169900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>203200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>241800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>237900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>281300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>454100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>275500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>292900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>282900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>309900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>279400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>258400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>235200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>329600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>266200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>278100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>363000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>410200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>385200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>199800</v>
+      </c>
+      <c r="E9" s="3">
         <v>188500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>179600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>196800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>205000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>206800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>136700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>131800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>150500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>160500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>172800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>192300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>189700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>184200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>181100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>193400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>172700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>159700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>141200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>158400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>169900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>167200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>165900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>182900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>106100</v>
+      </c>
+      <c r="E10" s="3">
         <v>86700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>30600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>45400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>33200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>71400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>91300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>77400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>108500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>261800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>85800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>108700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>101800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>116500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>106700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>98700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>94000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>171200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>96300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>110900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>197100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>227300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>168900</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,71 +1203,74 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E14" s="3">
         <v>-5400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>26700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>20800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>18600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-252100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2810800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-4900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1119500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>19800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>596200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-31300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>792800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>8800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>121600</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -1258,90 +1278,96 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>1435400</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E15" s="3">
         <v>26600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>25600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>24700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>25200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>25300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>34900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>90500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>90600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>89400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>103700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>106700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>112800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>111100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>109600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>114200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>113900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>129700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>128800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>138100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>137600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>136600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>135700</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>155200</v>
       </c>
       <c r="AA15" s="3">
         <v>155200</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>155200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>254500</v>
+      </c>
+      <c r="E17" s="3">
         <v>227600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>244900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>70900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>263900</v>
       </c>
       <c r="H17" s="3">
         <v>263900</v>
       </c>
       <c r="I17" s="3">
+        <v>263900</v>
+      </c>
+      <c r="J17" s="3">
         <v>-65200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3047800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>251900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>334000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1413900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>337800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>916200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>411600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>275400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>324800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>301100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1104000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>439900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>322800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>322400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>317500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1788300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>387400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E18" s="3">
         <v>47600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-34700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>137300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-44600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>235100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2844600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-96100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1132600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>116300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-640700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-118700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-14900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-21700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-845600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-65600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-110300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-56600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-44300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>45500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1378100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>71000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E21" s="3">
         <v>89600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>177700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>27100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>66000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>278800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2753600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>88400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1031200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>224800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-528100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>119500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>100800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>94700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-713100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>64400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>29600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>82400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>95400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>182800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1221500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>153600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="E22" s="3">
         <v>7700</v>
       </c>
       <c r="F22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G22" s="3">
         <v>8100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>70300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>70900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>71200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>69000</v>
       </c>
       <c r="P22" s="3">
         <v>69000</v>
       </c>
       <c r="Q22" s="3">
+        <v>69000</v>
+      </c>
+      <c r="R22" s="3">
         <v>70200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>73700</v>
       </c>
       <c r="S22" s="3">
         <v>73700</v>
       </c>
       <c r="T22" s="3">
+        <v>73700</v>
+      </c>
+      <c r="U22" s="3">
         <v>74100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>76000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>72400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>72900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>73200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>73400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>55900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E23" s="3">
         <v>41000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-41900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>130400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>18600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>228400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2844200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-25600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-163400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1205700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>46800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-709800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-185800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-60300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-87100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-92800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-916900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-140300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-180900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-128100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-114400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-26400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1432600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-54200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E24" s="3">
         <v>3900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-25100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>25300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-121200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-143000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-37200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-56300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-14500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-38800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-59000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-28600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-18200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>257400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-149500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E26" s="3">
         <v>37100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-36700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>123400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>20400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>232000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2819100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-50900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-42200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1062700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>48200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-707000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-148600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-63100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-30800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-78400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-878000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-143300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-122000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-99500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-96200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-283800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1283200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-44200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E27" s="3">
         <v>37100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-36700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>123400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>20400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>232000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2819100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-50900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-42200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1062700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-32900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-444900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-152000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-67100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-33100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-81600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-628100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-142300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-133700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-96800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-91900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-301700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1289400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2253,11 +2314,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -2265,21 +2326,21 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-3600</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -2287,40 +2348,43 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-3800</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>109000</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y29" s="3" t="s">
+      <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-71000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E33" s="3">
         <v>37100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-36700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>123400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>20400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>232000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2822700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-50900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-42200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1062700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-32900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-444900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-152000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-70900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-33100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-81600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-628100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-142300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-24700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-96800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-93400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-301700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1289400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E35" s="3">
         <v>37100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-36700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>123400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>20400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>232000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2822700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-50900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-42200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1062700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-32900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-444900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-152000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-70900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-33100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-81600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-628100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-142300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-24700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-96800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-93400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-301700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1289400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>422500</v>
+      </c>
+      <c r="E41" s="3">
         <v>160200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>105200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>194100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>112200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>161200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>116300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>343300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>325100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>191200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>175900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>104600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>136000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>153800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>187100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>375200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>326300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>411500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>461700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>662800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>608800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>603000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>519800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>725700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,85 +3165,91 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>298300</v>
+      </c>
+      <c r="E43" s="3">
         <v>283900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>274600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>222200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>261400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>260800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>211300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>189300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>220400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>370300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>401500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>258400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>272400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>270200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>228000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>221200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>264700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>225000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>203300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>310000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>257900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>260800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>381800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>374600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,162 +3325,171 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E45" s="3">
         <v>36600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>38200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>39300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>47300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>45300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>27000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>69600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>65700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>39700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>43900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>59100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>36900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>38100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>46000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>62600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>69800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>60700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>55400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>66100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>74600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>74300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>63000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>92300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>102800</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>754600</v>
+      </c>
+      <c r="E46" s="3">
         <v>480700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>418000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>455600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>420900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>467300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>354600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>602300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>611200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>601200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>621300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>422100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>445300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>462100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>461100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>659100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>660800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>697300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>720500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1039000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>941300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>938100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>964500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1192600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>883800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3397,8 +3502,8 @@
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -3407,28 +3512,28 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>3200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6200</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>16100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>18500</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
@@ -3442,8 +3547,8 @@
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3460,108 +3565,114 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1221700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1496500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1491600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1495800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1462100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1541800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1164800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3577100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6431400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6486600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6535300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7733900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7844200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8488500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8534900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8480700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8543400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8521400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>9398900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>9489200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>9712300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>9838300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>9944400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>10061900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>11591800</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E49" s="3">
         <v>33500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>47800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>61800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>76300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>90700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>104900</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -3575,8 +3686,8 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>383900</v>
+      </c>
+      <c r="E52" s="3">
         <v>87300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>76100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>60200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>135500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>50700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>70500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>81400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>65500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>93600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>104400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>128500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>89900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>91700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>120400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>125100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>196900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>175000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>148800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>266400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>244700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>248700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>97100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>185600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>108600</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2385500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2097900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2033400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2073400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2094800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2150500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1694900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4263900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7112700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7187500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7261100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8284500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8395500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9060700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9116300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9264900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9401100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9393700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10268100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10794700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10898200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11025100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>11006000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>11440100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>12584100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4187,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>144500</v>
+      </c>
+      <c r="E57" s="3">
         <v>136100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>122200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>120400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>106400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>124000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>96200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>95200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>81100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>94700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>87900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>108200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>108800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>118000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>111000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>125600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>103300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>93600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>94300</v>
-      </c>
-      <c r="V57" s="3">
-        <v>84000</v>
       </c>
       <c r="W57" s="3">
         <v>84000</v>
       </c>
       <c r="X57" s="3">
+        <v>84000</v>
+      </c>
+      <c r="Y57" s="3">
         <v>86600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>83800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>108200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4164,25 +4298,25 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>3953700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>261000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>62500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>362500</v>
-      </c>
-      <c r="P58" s="3">
-        <v>300000</v>
       </c>
       <c r="Q58" s="3">
         <v>300000</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4194,184 +4328,193 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>249800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>249700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>249500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>249300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>299900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>299800</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>124300</v>
+      </c>
+      <c r="E59" s="3">
         <v>111500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>111800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>128000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>135100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>147600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>106800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>123200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>118500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>393500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>310800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>346200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>299500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>316700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>184600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>239900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>212500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>243600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>200200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>259100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>261600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>312300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>216800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>225200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>268800</v>
+      </c>
+      <c r="E60" s="3">
         <v>247600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>234100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>248400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>241500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>271600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>203000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>218400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>199600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4442000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>659600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>516900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>770700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>734800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>595600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>365500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>315800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>337200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>294500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>593000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>595300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>648500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>549900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>633300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>684100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>216000</v>
+        <v>434400</v>
       </c>
       <c r="E61" s="3">
         <v>216000</v>
@@ -4380,147 +4523,153 @@
         <v>216000</v>
       </c>
       <c r="G61" s="3">
-        <v>406000</v>
+        <v>216000</v>
       </c>
       <c r="H61" s="3">
         <v>406000</v>
       </c>
       <c r="I61" s="3">
+        <v>406000</v>
+      </c>
+      <c r="J61" s="3">
         <v>393500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3997900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3977900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>3692500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3779500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3577900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3553100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3550800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3877400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3903000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3842600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3841400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3795900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3795300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3793900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3792500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4040200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3830200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>133800</v>
+      </c>
+      <c r="E62" s="3">
         <v>125500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>117800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>108400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>80600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>87100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>95800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>359000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>426100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>188500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>312500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>329100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>331700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>345100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>386100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>367500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>490600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>440800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>473500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>455100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>542800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>510300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>481700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>299200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>836900</v>
+      </c>
+      <c r="E66" s="3">
         <v>589200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>567900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>572800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>728100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>764700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>692300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4575300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4603600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4630500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4664600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4625500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4801700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5024100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4932800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5011800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5113100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5031500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5280200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5518500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5611300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5648700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5545400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5681400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5539200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E72" s="3">
         <v>102400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>65300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>102000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-21500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1070700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1752000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1802900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1845100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2907800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2940600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3385500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3537500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3608400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3641400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3721400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4351100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4637700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4662500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4759300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4852600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>5154200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>6457100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1548600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1508800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1465500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1500600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1366700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1385700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1002600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-311400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2509000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2557000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2596500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3659000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3593800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4036600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4183500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4253200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4288000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4362200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4988000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5276200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5287000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5376400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>5460500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>5758700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7044900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E81" s="3">
         <v>37100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-36700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>123400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>20400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>232000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2822700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-50900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-42200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1062700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-32900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-444900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-152000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-70900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-33100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-81600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-628100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-142300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-24700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-96800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-93400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-301700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1289400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E83" s="3">
         <v>40900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>39700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>39100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>39700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>39600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>43300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>90500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>90600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>89400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>103700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>106700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>112800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>111100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>109600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>114200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>113900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>129700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>128800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>138100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>137600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>136600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>135700</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>155200</v>
       </c>
       <c r="AA83" s="3">
         <v>155200</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>155200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>73500</v>
+      </c>
+      <c r="E89" s="3">
         <v>88100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-51800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>27600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-27300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>36500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>188400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>49100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>218200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-24000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>33300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-40800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>128500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-10600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>54900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>154900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>44800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>112400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>141900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>165600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>101100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-32500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-47000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-36700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-42700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-59700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-30000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-36300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-43200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-32900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-36500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-46200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-70200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-55600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-96800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-45500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-73500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-42100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-33800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-36800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-25400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-30200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-18700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-727800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-351000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-31000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-32800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>239400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-42500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>26000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-29500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-42000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-32700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-36500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-42900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-70200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-54100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-88900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-44200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-73100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-38400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-33700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-32900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-18100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-29200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-38100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-60000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-472200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6794,10 +7028,13 @@
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>218500</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-189900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>12800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-191200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>108600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-206700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>76400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-57900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-35400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-10700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-222400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-30600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-20900</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-309700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>196300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-28200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>262300</v>
+      </c>
+      <c r="E102" s="3">
         <v>57500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-89400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>77100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-48900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>51500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-248000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>26200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>146300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>71300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-31400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-17800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-33300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-187500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>48900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-84500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-50200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-201200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>54100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>5800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>83200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-206000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>299700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-396900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>NE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,384 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>610100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>622600</v>
+      </c>
+      <c r="F8" s="3">
         <v>305900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>275200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>210200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>208200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>250400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>219300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>169900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>203200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>241800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>237900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>281300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>454100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>275500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>292900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>282900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>309900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>279400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>258400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>235200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>329600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>266200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>278100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>363000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>410200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>385200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>387800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>393700</v>
+      </c>
+      <c r="F9" s="3">
         <v>199800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>188500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>179600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>196800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>205000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>206800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>136700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>131800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>150500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>160500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>172800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>192300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>189700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>184200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>181100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>193400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>172700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>159700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>141200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>158400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>169900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>167200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>165900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>182900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>222300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>228900</v>
+      </c>
+      <c r="F10" s="3">
         <v>106100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>86700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>30600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>11400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>45400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>12500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>33200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>71400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>91300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>77400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>108500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>261800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>85800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>108700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>101800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>116500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>106700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>98700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>94000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>171200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>96300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>110900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>197100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>227300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>168900</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,168 +1239,186 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>60800</v>
+      </c>
+      <c r="F14" s="3">
         <v>11400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-5400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>26700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>20800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>18600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>6700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-252100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>2810800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-4900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>11100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>1119500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>19800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>596200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-31300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>2400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>-100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>792800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>8800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>121600</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>1435400</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>69800</v>
+      </c>
+      <c r="F15" s="3">
         <v>24900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>26600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>25600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>24700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>25200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>25300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>34900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>90500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>90600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>89400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>103700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>106700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>112800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>111100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>109600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>114200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>113900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>129700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>128800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>138100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>137600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>136600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>135700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>155200</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>155200</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>502900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>467100</v>
+      </c>
+      <c r="F17" s="3">
         <v>254500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>227600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>244900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>70900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>263900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>263900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>-65200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3047800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>251900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>334000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1413900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>337800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>916200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>411600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>275400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>324800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>301100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1104000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>300800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>439900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>322800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>322400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>317500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1788300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>387400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>107200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>155500</v>
+      </c>
+      <c r="F18" s="3">
         <v>51400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>47600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-34700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>137300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-13500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-44600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>235100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2844600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-10100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-96100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1132600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>116300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-640700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-118700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>7500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-14900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-21700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-845600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-65600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-110300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-56600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-44300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>45500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-1378100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1648,440 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F20" s="3">
         <v>3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>71000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>7900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>2500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>2600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>2800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>1800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>1400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>3100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>1600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>1400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>179100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>198400</v>
+      </c>
+      <c r="F21" s="3">
         <v>87600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>89600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>5500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>177700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>27100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>66000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>278800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2753600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>88400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1031200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>224800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-528100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-5700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>119500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>100800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>94700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-713100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>64400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>29600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>82400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>95400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>182800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-1221500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>153600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F22" s="3">
         <v>7900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>7700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>7700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>8100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>8900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>7900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>7100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>23400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>70300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>70900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>71200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>69000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>69000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>70200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>73700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>73700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>74100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>76000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>72400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>72900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>73200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>73400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>55900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>92300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>145700</v>
+      </c>
+      <c r="F23" s="3">
         <v>46700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>41000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-41900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>130400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-21400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>18600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>228400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2844200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-25600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-163400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1205700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>46800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-709800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-185800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-60300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-87100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-92800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-916900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-140300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-180900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-128100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-114400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-26400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-1432600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-54200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F24" s="3">
         <v>13100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>3900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-5200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>7000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-3600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-25100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>25300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-121200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-143000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-37200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>2900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-56300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-14500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-38800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>3000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-59000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-28600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-18200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>257400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-149500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>135000</v>
+      </c>
+      <c r="F26" s="3">
         <v>33600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>37100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-36700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>123400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-23700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>20400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>232000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2819100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-50900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-42200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1062700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>48200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-707000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-148600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-63100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-30800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-78400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-878000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-143300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-122000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-99500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-96200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-283800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-1283200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-44200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>135000</v>
+      </c>
+      <c r="F27" s="3">
         <v>33600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>37100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-36700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>123400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-23700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>20400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>232000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2819100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-50900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-42200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1062700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-32900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-444900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-152000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-67100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-33100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-81600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-628100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-142300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-133700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-96800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-91900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-301700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-1289400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2317,74 +2438,80 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-3600</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-3800</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>109000</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z29" s="3" t="s">
+      <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2676,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-71000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-7900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-2500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-2600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-2800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-1800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>135000</v>
+      </c>
+      <c r="F33" s="3">
         <v>33600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>37100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-36700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>123400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-23700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>20400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>232000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2822700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-50900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-42200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1062700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-32900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-444900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-152000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-70900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-33100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-81600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-628100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-142300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-24700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-96800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-93400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-301700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-1289400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>135000</v>
+      </c>
+      <c r="F35" s="3">
         <v>33600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>37100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-36700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>123400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-23700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>20400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>232000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2822700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-50900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-42200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1062700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-32900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-444900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-152000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-70900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-33100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-81600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-628100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-142300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-24700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-96800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-93400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-301700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-1289400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3179,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>186200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>476200</v>
+      </c>
+      <c r="F41" s="3">
         <v>422500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>160200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>105200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>194100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>112200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>161200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>116300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>343300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>325100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>191200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>175900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>104600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>136000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>153800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>187100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>375200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>326300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>411500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>461700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>662800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>608800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>603000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>519800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>725700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,88 +3347,100 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>614300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>514100</v>
+      </c>
+      <c r="F43" s="3">
         <v>298300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>283900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>274600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>222200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>261400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>260800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>211300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>189300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>220400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>370300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>401500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>258400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>272400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>270200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>228000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>221200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>264700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>225000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>203300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>310000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>257900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>260800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>381800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>374600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,176 +3519,194 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>61500</v>
+      </c>
+      <c r="F45" s="3">
         <v>33900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>36600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>38200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>39300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>47300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>45300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>27000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>69600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>65700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>39700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>43900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>59100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>36900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>38100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>46000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>62600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>69800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>60700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>55400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>66100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>74600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>74300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>63000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>92300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>102800</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>872200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1051800</v>
+      </c>
+      <c r="F46" s="3">
         <v>754600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>480700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>418000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>455600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>420900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>467300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>354600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>602300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>611200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>601200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>621300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>422100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>445300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>462100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>461100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>659100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>660800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>697300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>720500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1039000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>941300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>938100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>964500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1192600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>883800</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
+      <c r="E47" s="3">
+        <v>400</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -3505,41 +3714,41 @@
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>3200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>4600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>6200</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>16100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>18500</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
@@ -3550,11 +3759,11 @@
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
-      </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3568,117 +3777,129 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3966000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4015900</v>
+      </c>
+      <c r="F48" s="3">
         <v>1221700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1496500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1491600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1495800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1462100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1541800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1164800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3577100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6431400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6486600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6535300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>7733900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>7844200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>8488500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>8534900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>8480700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>8543400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>8521400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>9398900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>9489200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>9712300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>9838300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>9944400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>10061900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>11591800</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>60400</v>
+      </c>
+      <c r="F49" s="3">
         <v>25300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>33500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>47800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>61800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>76300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>90700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>104900</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
@@ -3689,11 +3910,11 @@
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4121,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>191700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>106500</v>
+      </c>
+      <c r="F52" s="3">
         <v>383900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>87300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>76100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>60200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>135500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>50700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>70500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>81400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>65500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>93600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>104400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>128500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>89900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>91700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>120400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>125100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>196900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>175000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>148800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>266400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>244700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>248700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>97100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>185600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>108600</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5072400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5234900</v>
+      </c>
+      <c r="F54" s="3">
         <v>2385500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2097900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2033400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2073400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2094800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2150500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1694900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4263900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7112700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7187500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7261100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>8284500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8395500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>9060700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>9116300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>9264900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>9401100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>9393700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>10268100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>10794700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>10898200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>11025100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>11006000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>11440100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>12584100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,111 +4447,119 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>265600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>290700</v>
+      </c>
+      <c r="F57" s="3">
         <v>144500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>136100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>122200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>120400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>106400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>124000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>96200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>95200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>81100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>94700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>87900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>108200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>108800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>118000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>111000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>125600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>103300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>93600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>94300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>84000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>84000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>86600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>83800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>108200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>159700</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -4301,29 +4568,29 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>3953700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>261000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>62500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>362500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>300000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>300000</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
@@ -4331,345 +4598,375 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>249800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>249700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>249500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>249300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>299900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>299800</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>182400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>216700</v>
+      </c>
+      <c r="F59" s="3">
         <v>124300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>111500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>111800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>128000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>135100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>147600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>106800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>123200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>118500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>393500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>310800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>346200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>299500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>316700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>184600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>239900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>212500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>243600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>200200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>259100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>261600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>312300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>216800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>225200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>463000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>667100</v>
+      </c>
+      <c r="F60" s="3">
         <v>268800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>247600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>234100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>248400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>241500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>271600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>203000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>218400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>199600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4442000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>659600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>516900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>770700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>734800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>595600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>365500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>315800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>337200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>294500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>593000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>595300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>648500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>549900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>633300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>684100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>505700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>513100</v>
+      </c>
+      <c r="F61" s="3">
         <v>434400</v>
-      </c>
-      <c r="E61" s="3">
-        <v>216000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>216000</v>
       </c>
       <c r="G61" s="3">
         <v>216000</v>
       </c>
       <c r="H61" s="3">
+        <v>216000</v>
+      </c>
+      <c r="I61" s="3">
+        <v>216000</v>
+      </c>
+      <c r="J61" s="3">
         <v>406000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>406000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>393500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3997900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3977900</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>3692500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3779500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>3577900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>3553100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>3550800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>3877400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>3903000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>3842600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>3841400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>3795900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>3795300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>3793900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>3792500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>4040200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>3830200</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>399500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>447600</v>
+      </c>
+      <c r="F62" s="3">
         <v>133800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>125500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>117800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>108400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>80600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>87100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>95800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>359000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>426100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>188500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>312500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>329100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>331700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>345100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>386100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>367500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>490600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>440800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>473500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>455100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>542800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>510300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>481700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>299200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1368100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1627800</v>
+      </c>
+      <c r="F66" s="3">
         <v>836900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>589200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>567900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>572800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>728100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>764700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>692300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4575300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4603600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4630500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4664600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4625500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4801700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5024100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4932800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5011800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>5113100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>5031500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>5280200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>5518500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>5611300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>5648700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>5545400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>5681400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>5539200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>354000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>255900</v>
+      </c>
+      <c r="F72" s="3">
         <v>136000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>102400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>65300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>102000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-21500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-18200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1070700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1752000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1802900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1845100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2907800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2940600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>3385500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>3537500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>3608400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>3641400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>3721400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>4351100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>4637700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>4662500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>4759300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>4852600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>5154200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>6457100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3704300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3607100</v>
+      </c>
+      <c r="F76" s="3">
         <v>1548600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1508800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1465500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1500600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1366700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1385700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1002600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-311400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2509000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2557000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2596500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3659000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3593800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4036600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>4183500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>4253200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>4288000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>4362200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>4988000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>5276200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>5287000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>5376400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>5460500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>5758700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>7044900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>135000</v>
+      </c>
+      <c r="F81" s="3">
         <v>33600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>37100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-36700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>123400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-23700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>20400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>232000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2822700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-50900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-42200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1062700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-32900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-444900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-152000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-70900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-33100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-81600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-628100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-142300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-24700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-96800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-93400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-301700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-1289400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6408,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>33200</v>
+      </c>
+      <c r="F83" s="3">
         <v>33000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>40900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>39700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>39100</v>
       </c>
       <c r="H83" s="3">
         <v>39700</v>
       </c>
       <c r="I83" s="3">
+        <v>39100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>39700</v>
+      </c>
+      <c r="K83" s="3">
         <v>39600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>43300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>90500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>90600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>89400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>103700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>106700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>112800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>111100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>109600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>114200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>113900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>129700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>128800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>138100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>137600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>136600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>135700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>155200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>155200</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>171200</v>
+      </c>
+      <c r="F89" s="3">
         <v>73500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>88100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-51800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>27600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-6900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>12700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-27300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>36500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>188400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>49100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>218200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>33300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-40800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>128500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-10600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-1000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>54900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>154900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>44800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>112400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>141900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>165600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>101100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +7042,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-29700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-32500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-47000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-36700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-42700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-59700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-30000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-36300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-43200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-32900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-36500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-46200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-70200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-55600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-96800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-45500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-73500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-42100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-33800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-36800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-25400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-30200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-18700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-727800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-351000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7296,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>469300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-29700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-31000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-32800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>239400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-42500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>26000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-29500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-10300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-42000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-32700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-36500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-42900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-70200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-54100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-88900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-44200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-73100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-38400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-33700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-32900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-18100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-29200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-38100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-60000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-472200</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7031,10 +7498,16 @@
         <v>0</v>
       </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7758,100 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-170500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-581800</v>
+      </c>
+      <c r="F100" s="3">
         <v>218500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-4800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-189900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>12800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-191200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>108600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-206700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>76400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-12500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-57900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-35400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-10700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-222400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-30600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-20900</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-309700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>196300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-28200</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7930,96 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-296300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>58600</v>
+      </c>
+      <c r="F102" s="3">
         <v>262300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>57500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-89400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>77100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-48900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>51500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-248000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>26200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>146300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>15300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>71300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-31400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-33300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-187500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>48900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-84500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-50200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-201200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>54100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>5800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>83200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-206000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>299700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-396900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>NE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>638500</v>
+      </c>
+      <c r="E8" s="3">
         <v>610100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>622600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>305900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>275200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>210200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>208200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>250400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>219300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>169900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>203200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>241800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>237900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>281300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>454100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>275500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>292900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>282900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>309900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>279400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>258400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>235200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>329600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>266200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>278100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>363000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>410200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>385200</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>387300</v>
+      </c>
+      <c r="E9" s="3">
         <v>387800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>393700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>199800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>188500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>179600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>196800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>205000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>206800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>136700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>131800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>150500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>160500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>172800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>192300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>189700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>184200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>181100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>193400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>172700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>159700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>141200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>158400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>169900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>167200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>165900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>182900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>251200</v>
+      </c>
+      <c r="E10" s="3">
         <v>222300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>228900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>106100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>86700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>30600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>45400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>71400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>91300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>77400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>108500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>261800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>85800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>108700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>101800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>116500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>106700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>98700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>94000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>171200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>96300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>110900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>197100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>227300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>168900</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,80 +1262,83 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E14" s="3">
         <v>15200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>60800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>11400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-5400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>26700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>20800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>18600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-252100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2810800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-4900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1119500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>19800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>596200</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-31300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>792800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>8800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>121600</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
@@ -1326,99 +1346,105 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>1435400</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>71300</v>
+      </c>
+      <c r="E15" s="3">
         <v>69900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>69800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>24900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>26600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>25600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>24700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>25200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>25300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>34900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>90500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>90600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>89400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>103700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>106700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>112800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>111100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>109600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>114200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>113900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>129700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>128800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>138100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>137600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>136600</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>135700</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>155200</v>
       </c>
       <c r="AD15" s="3">
         <v>155200</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>155200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>555800</v>
+      </c>
+      <c r="E17" s="3">
         <v>502900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>467100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>254500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>227600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>244900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>70900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>263900</v>
       </c>
       <c r="K17" s="3">
         <v>263900</v>
       </c>
       <c r="L17" s="3">
+        <v>263900</v>
+      </c>
+      <c r="M17" s="3">
         <v>-65200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3047800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>251900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>334000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1413900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>337800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>916200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>411600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>275400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>324800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>301100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1104000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>300800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>439900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>322800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>322400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>317500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1788300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>387400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>82700</v>
+      </c>
+      <c r="E18" s="3">
         <v>107200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>155500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>51400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>47600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-34700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>137300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-44600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>235100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2844600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-96100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1132600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>116300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-640700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-118700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-14900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-21700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-845600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-65600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-110300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-56600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-44300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>45500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-1378100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,438 +1683,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>9600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>71000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>3100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>151100</v>
+      </c>
+      <c r="E21" s="3">
         <v>179100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>198400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>87600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>89600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>177700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>27100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>66000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>278800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2753600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>88400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1031200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>224800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-528100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>119500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>100800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>94700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-713100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>64400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>29600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>82400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>95400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>182800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-1221500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>153600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E22" s="3">
         <v>16900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>19400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>7700</v>
       </c>
       <c r="H22" s="3">
         <v>7700</v>
       </c>
       <c r="I22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J22" s="3">
         <v>8100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>70300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>70900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>71200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>69000</v>
       </c>
       <c r="S22" s="3">
         <v>69000</v>
       </c>
       <c r="T22" s="3">
+        <v>69000</v>
+      </c>
+      <c r="U22" s="3">
         <v>70200</v>
-      </c>
-      <c r="U22" s="3">
-        <v>73700</v>
       </c>
       <c r="V22" s="3">
         <v>73700</v>
       </c>
       <c r="W22" s="3">
+        <v>73700</v>
+      </c>
+      <c r="X22" s="3">
         <v>74100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>76000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>72400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>72900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>73200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>73400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>55900</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E23" s="3">
         <v>92300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>145700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>46700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>41000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-41900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>130400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-21400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>228400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2844200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-25600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-163400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1205700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>46800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-709800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-185800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-60300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-87100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-92800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-916900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-140300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-180900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-128100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-114400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-26400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-1432600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-54200</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-15800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-5200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-25100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>25300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-121200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-143000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-37200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-56300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-14500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-38800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-59000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-28600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-18200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>257400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-149500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E26" s="3">
         <v>108100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>135000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>33600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>37100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-36700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>123400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-23700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>232000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2819100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-50900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-42200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1062700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>48200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-707000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-148600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-63100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-30800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-78400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-878000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-143300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-122000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-99500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-96200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-283800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-1283200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-44200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E27" s="3">
         <v>108100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>135000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>33600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>37100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-36700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>123400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-23700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>20400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>232000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2819100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-50900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-42200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1062700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-32900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-444900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-152000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-67100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-33100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-81600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-628100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-142300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-133700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-96800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-91900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-301700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-1289400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2444,11 +2505,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2456,21 +2517,21 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-3600</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
@@ -2478,40 +2539,43 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-3800</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
-      <c r="X29" s="3" t="s">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>109000</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB29" s="3" t="s">
+      <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC29" s="3">
-        <v>0</v>
-      </c>
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-9600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-71000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E33" s="3">
         <v>108100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>135000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>33600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>37100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-36700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>123400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-23700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>20400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>232000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2822700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-50900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-42200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1062700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-32900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-444900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-152000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-70900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-33100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-81600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-628100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-142300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-24700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-96800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-93400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-301700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-1289400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E35" s="3">
         <v>108100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>135000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>33600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>37100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-36700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>123400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-23700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>20400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>232000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2822700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-50900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-42200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1062700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-32900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-444900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-152000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-70900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-33100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-81600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-628100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-142300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-24700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-96800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-93400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-301700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-1289400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>255400</v>
+      </c>
+      <c r="E41" s="3">
         <v>186200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>476200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>422500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>160200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>105200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>194100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>112200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>161200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>116300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>343300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>325100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>191200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>175900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>104600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>136000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>153800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>187100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>375200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>326300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>411500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>461700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>662800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>608800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>603000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>519800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>725700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,94 +3443,100 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>580200</v>
+      </c>
+      <c r="E43" s="3">
         <v>614300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>514100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>298300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>283900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>274600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>222200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>261400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>260800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>211300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>189300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>220400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>370300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>401500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>258400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>272400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>270200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>228000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>221200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>264700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>225000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>203300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>310000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>257900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>260800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>381800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>374600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,191 +3621,200 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E45" s="3">
         <v>71700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>61500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>33900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>36600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>38200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>39300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>47300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>45300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>27000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>69600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>65700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>39700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>43900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>59100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>36900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>38100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>46000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>62600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>69800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>60700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>55400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>66100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>74600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>74300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>63000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>92300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>102800</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>932600</v>
+      </c>
+      <c r="E46" s="3">
         <v>872200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1051800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>754600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>480700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>418000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>455600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>420900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>467300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>354600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>602300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>611200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>601200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>621300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>422100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>445300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>462100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>461100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>659100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>660800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>697300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>720500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1039000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>941300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>938100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>964500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1192600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>883800</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
         <v>400</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -3720,8 +3825,8 @@
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3730,28 +3835,28 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>3200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6200</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
       <c r="Q47" s="3">
         <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>16100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>18500</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
@@ -3765,8 +3870,8 @@
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z47" s="3">
         <v>0</v>
@@ -3783,126 +3888,132 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4006600</v>
+      </c>
+      <c r="E48" s="3">
         <v>3966000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4015900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1221700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1496500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1491600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1495800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1462100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1541800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1164800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3577100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6431400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6486600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6535300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7733900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7844200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8488500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8534900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8480700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8543400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8521400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>9398900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>9489200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>9712300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>9838300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>9944400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>10061900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>11591800</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E49" s="3">
         <v>42400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>60400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>25300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>33500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>47800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>61800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>76300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>90700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>104900</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
@@ -3916,8 +4027,8 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>226600</v>
+      </c>
+      <c r="E52" s="3">
         <v>191700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>106500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>383900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>87300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>76100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>60200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>135500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>50700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>70500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>81400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>65500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>93600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>104400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>128500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>89900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>91700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>120400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>125100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>196900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>175000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>148800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>266400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>244700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>248700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>97100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>185600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>108600</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5197400</v>
+      </c>
+      <c r="E54" s="3">
         <v>5072400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5234900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2385500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2097900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2033400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2073400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2094800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2150500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1694900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4263900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7112700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7187500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7261100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8284500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8395500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9060700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9116300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9264900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9401100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9393700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10268100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>10794700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>10898200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>11025100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>11006000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>11440100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>12584100</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,105 +4579,109 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>310700</v>
+      </c>
+      <c r="E57" s="3">
         <v>265600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>290700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>144500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>136100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>122200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>120400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>106400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>124000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>96200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>95200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>81100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>94700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>87900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>108200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>108800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>118000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>111000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>125600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>103300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>93600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>94300</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>84000</v>
       </c>
       <c r="Z57" s="3">
         <v>84000</v>
       </c>
       <c r="AA57" s="3">
+        <v>84000</v>
+      </c>
+      <c r="AB57" s="3">
         <v>86600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>83800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>108200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>15000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>159700</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -4561,8 +4695,8 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -4574,25 +4708,25 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>3953700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>261000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>62500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>362500</v>
-      </c>
-      <c r="S58" s="3">
-        <v>300000</v>
       </c>
       <c r="T58" s="3">
         <v>300000</v>
       </c>
       <c r="U58" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4604,211 +4738,220 @@
         <v>0</v>
       </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>249800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>249700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>249500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>249300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>299900</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>299800</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>203400</v>
+      </c>
+      <c r="E59" s="3">
         <v>182400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>216700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>124300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>111500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>111800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>128000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>135100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>147600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>106800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>123200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>118500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>393500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>310800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>346200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>299500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>316700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>184600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>239900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>212500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>243600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>200200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>259100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>261600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>312300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>216800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>225200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>514200</v>
+      </c>
+      <c r="E60" s="3">
         <v>463000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>667100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>268800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>247600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>234100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>248400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>241500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>271600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>203000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>218400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>199600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4442000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>659600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>516900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>770700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>734800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>595600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>365500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>315800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>337200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>294500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>593000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>595300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>648500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>549900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>633300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>684100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>585400</v>
+      </c>
+      <c r="E61" s="3">
         <v>505700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>513100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>434400</v>
-      </c>
-      <c r="G61" s="3">
-        <v>216000</v>
       </c>
       <c r="H61" s="3">
         <v>216000</v>
@@ -4817,156 +4960,162 @@
         <v>216000</v>
       </c>
       <c r="J61" s="3">
-        <v>406000</v>
+        <v>216000</v>
       </c>
       <c r="K61" s="3">
         <v>406000</v>
       </c>
       <c r="L61" s="3">
+        <v>406000</v>
+      </c>
+      <c r="M61" s="3">
         <v>393500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3997900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3977900</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>3692500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3779500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3577900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3553100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3550800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3877400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3903000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3842600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3841400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3795900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3795300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3793900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3792500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>4040200</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>3830200</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>378400</v>
+      </c>
+      <c r="E62" s="3">
         <v>399500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>447600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>133800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>125500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>117800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>108400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>80600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>87100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>95800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>359000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>426100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>188500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>312500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>329100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>331700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>345100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>386100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>367500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>490600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>440800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>473500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>455100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>542800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>510300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>481700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>299200</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1478000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1368100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1627800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>836900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>589200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>567900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>572800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>728100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>764700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>692300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4575300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4603600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4630500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4664600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4625500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4801700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5024100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4932800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5011800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5113100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5031500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5280200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5518500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5611300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5648700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5545400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>5681400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>5539200</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>359800</v>
+      </c>
+      <c r="E72" s="3">
         <v>354000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>255900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>136000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>102400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>65300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>102000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-21500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1070700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1752000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1802900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1845100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2907800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2940600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3385500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3537500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3608400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3641400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3721400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4351100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4637700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4662500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>4759300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>4852600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>5154200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>6457100</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3719400</v>
+      </c>
+      <c r="E76" s="3">
         <v>3704300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3607100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1548600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1508800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1465500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1500600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1366700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1385700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1002600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-311400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2509000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2557000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2596500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3659000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3593800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4036600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4183500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4253200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4288000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4362200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4988000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>5276200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>5287000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>5376400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>5460500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>5758700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>7044900</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E81" s="3">
         <v>108100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>135000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>33600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>37100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-36700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>123400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-23700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>20400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>232000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2822700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-50900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-42200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1062700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-32900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-444900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-152000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-70900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-33100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-81600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-628100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-142300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-24700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-96800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-93400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-301700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-1289400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>71300</v>
+      </c>
+      <c r="E83" s="3">
         <v>69900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>33200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>40900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>39700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>39100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>39700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>39600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>43300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>90500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>90600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>89400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>103700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>106700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>112800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>111100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>109600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>114200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>113900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>129700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>128800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>138100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>137600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>136600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>135700</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>155200</v>
       </c>
       <c r="AD83" s="3">
         <v>155200</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>155200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>211200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-63100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>171200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>73500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>88100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-51800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>27600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-27300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>36500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>188400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>49100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>218200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-24000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>33300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-40800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>128500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-10600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>54900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>154900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>44800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>112400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>141900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>165600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>101100</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-106800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-62700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-65100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-29700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-32500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-47000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-36700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-42700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-59700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-30000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-36300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-43200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-32900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-36500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-46200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-70200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-55600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-96800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-45500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-73500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-42100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-33800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-36800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-25400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-30200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-18700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-727800</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-351000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-106800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-62700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>469300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-29700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-31000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-32800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>239400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-42500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>26000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-42000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-32700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-36500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-42900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-70200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-54100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-88900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-44200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-73100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-38400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-33700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-32900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-18100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-29200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-38100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-60000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-472200</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7504,10 +7738,13 @@
         <v>0</v>
       </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8007,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-170500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-581800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>218500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-189900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>12800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-191200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>108600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-206700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>76400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-12500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-57900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-35400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-10700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-222400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-30600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-20900</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-309700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>196300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-28200</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-296300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>58600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>262300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>57500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-89400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>77100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-48900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>51500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-248000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>26200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>146300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>15300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>71300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-31400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-17800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-33300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-187500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>48900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-84500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-50200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-201200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>54100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>5800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>83200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-206000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>299700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-396900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>NE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>697500</v>
+      </c>
+      <c r="E8" s="3">
         <v>638500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>610100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>622600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>305900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>275200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>210200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>208200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>250400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>219300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>169900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>203200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>241800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>237900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>281300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>454100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>275500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>292900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>282900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>309900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>279400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>258400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>235200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>329600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>266200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>278100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>363000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>410200</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>385200</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>370900</v>
+      </c>
+      <c r="E9" s="3">
         <v>387300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>387800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>393700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>199800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>188500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>179600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>196800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>205000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>206800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>136700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>131800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>150500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>160500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>172800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>192300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>189700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>184200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>181100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>193400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>172700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>159700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>141200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>158400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>169900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>167200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>165900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>182900</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>326600</v>
+      </c>
+      <c r="E10" s="3">
         <v>251200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>222300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>228900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>106100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>86700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>30600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>45400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>33200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>71400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>91300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>77400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>108500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>261800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>85800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>108700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>101800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>116500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>106700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>98700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>94000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>171200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>96300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>110900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>197100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>227300</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>168900</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,83 +1282,86 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E14" s="3">
         <v>64800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>15200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>60800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>11400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-5400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>26700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>20800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>18600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-252100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2810800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-4900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1119500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>19800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>596200</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-31300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>792800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>8800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>121600</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
@@ -1349,102 +1369,108 @@
         <v>0</v>
       </c>
       <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>1435400</v>
       </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E15" s="3">
         <v>71300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>69900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>69800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>24900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>26600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>25600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>24700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>25200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>25300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>34900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>90500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>90600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>89400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>103700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>106700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>112800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>111100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>109600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>114200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>113900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>129700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>128800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>138100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>137600</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>136600</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>135700</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>155200</v>
       </c>
       <c r="AE15" s="3">
         <v>155200</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>155200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>491700</v>
+      </c>
+      <c r="E17" s="3">
         <v>555800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>502900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>467100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>254500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>227600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>244900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>70900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>263900</v>
       </c>
       <c r="L17" s="3">
         <v>263900</v>
       </c>
       <c r="M17" s="3">
+        <v>263900</v>
+      </c>
+      <c r="N17" s="3">
         <v>-65200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3047800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>251900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>334000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1413900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>337800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>916200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>411600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>275400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>324800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>301100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1104000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>300800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>439900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>322800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>322400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>317500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1788300</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>387400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>205800</v>
+      </c>
+      <c r="E18" s="3">
         <v>82700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>107200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>155500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>51400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>47600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-34700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>137300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-44600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>235100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2844600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-96100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1132600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>116300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-640700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-118700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-14900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-21700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-845600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-65600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-110300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-56600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-44300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>45500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-1378100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,453 +1717,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>9600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>71000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>3100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1600</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>1400</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300100</v>
+      </c>
+      <c r="E21" s="3">
         <v>151100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>179100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>198400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>87600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>89600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>177700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>27100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>66000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>278800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2753600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>88400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1031200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>224800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-528100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-5700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>119500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>100800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>94700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-713100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>64400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>29600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>82400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>95400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>182800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-1221500</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>153600</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E22" s="3">
         <v>14700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>7700</v>
       </c>
       <c r="I22" s="3">
         <v>7700</v>
       </c>
       <c r="J22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K22" s="3">
         <v>8100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>23400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>70300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>70900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>71200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>69000</v>
       </c>
       <c r="T22" s="3">
         <v>69000</v>
       </c>
       <c r="U22" s="3">
+        <v>69000</v>
+      </c>
+      <c r="V22" s="3">
         <v>70200</v>
-      </c>
-      <c r="V22" s="3">
-        <v>73700</v>
       </c>
       <c r="W22" s="3">
         <v>73700</v>
       </c>
       <c r="X22" s="3">
+        <v>73700</v>
+      </c>
+      <c r="Y22" s="3">
         <v>74100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>76000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>72400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>72900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>73200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>73400</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>55900</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>210000</v>
+      </c>
+      <c r="E23" s="3">
         <v>65100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>92300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>145700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>46700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>41000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-41900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>130400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-21400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>18600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>228400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2844200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-25600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-163400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1205700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>46800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-709800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-185800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-60300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-87100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-92800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-916900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-140300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-180900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-128100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-114400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-26400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-1432600</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-54200</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-15800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-25100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>25300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-121200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-143000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-37200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-56300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-14500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-38800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-59000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-28600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-18200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>257400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-149500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>158300</v>
+      </c>
+      <c r="E26" s="3">
         <v>65800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>108100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>135000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>33600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>37100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-36700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>123400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-23700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>20400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>232000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2819100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-50900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-42200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1062700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>48200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-707000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-148600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-63100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-30800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-78400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-878000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-143300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-122000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-99500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-96200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-283800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-1283200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-44200</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>158300</v>
+      </c>
+      <c r="E27" s="3">
         <v>65800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>108100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>135000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>33600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>37100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-36700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>123400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-23700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>20400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>232000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2819100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-50900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-42200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1062700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-32900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-444900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-152000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-67100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-33100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-81600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-628100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-142300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-133700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-96800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-91900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-301700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-1289400</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2508,11 +2569,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2520,21 +2581,21 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-3600</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -2542,40 +2603,43 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-3800</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
-      <c r="Y29" s="3" t="s">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>109000</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
       <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC29" s="3" t="s">
+      <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD29" s="3">
-        <v>0</v>
-      </c>
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E32" s="3">
         <v>2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-9600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-71000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-3100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-1400</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>158300</v>
+      </c>
+      <c r="E33" s="3">
         <v>65800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>108100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>135000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>33600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>37100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-36700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>123400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-23700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>20400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>232000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2822700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-50900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-42200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1062700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-32900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-444900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-152000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-70900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-33100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-81600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-628100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-142300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-24700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-96800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-93400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-301700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-1289400</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>158300</v>
+      </c>
+      <c r="E35" s="3">
         <v>65800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>108100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>135000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>33600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>37100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-36700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>123400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-23700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>20400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>232000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2822700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-50900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-42200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1062700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-32900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-444900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-152000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-70900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-33100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-81600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-628100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-142300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-24700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-96800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-93400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-301700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-1289400</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>244800</v>
+      </c>
+      <c r="E41" s="3">
         <v>255400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>186200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>476200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>422500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>160200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>105200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>194100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>112200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>161200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>116300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>343300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>325100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>191200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>175900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>104600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>136000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>153800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>187100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>375200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>326300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>411500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>461700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>662800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>608800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>603000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>519800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>725700</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,97 +3536,103 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>692000</v>
+      </c>
+      <c r="E43" s="3">
         <v>580200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>614300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>514100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>298300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>283900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>274600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>222200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>261400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>260800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>211300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>189300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>220400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>370300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>401500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>258400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>272400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>270200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>228000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>221200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>264700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>225000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>203300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>310000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>257900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>260800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>381800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>374600</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,200 +3720,209 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>94700</v>
+      </c>
+      <c r="E45" s="3">
         <v>97000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>71700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>61500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>33900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>36600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>38200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>39300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>47300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>45300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>27000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>69600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>65700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>39700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>43900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>59100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>36900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>38100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>46000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>62600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>69800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>60700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>55400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>66100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>74600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>74300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>63000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>92300</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>102800</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1031500</v>
+      </c>
+      <c r="E46" s="3">
         <v>932600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>872200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1051800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>754600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>480700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>418000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>455600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>420900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>467300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>354600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>602300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>611200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>601200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>621300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>422100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>445300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>462100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>461100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>659100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>660800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>697300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>720500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1039000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>941300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>938100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>964500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1192600</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>883800</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>300</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3">
         <v>400</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -3828,8 +3933,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3838,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>3200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6200</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
       <c r="R47" s="3">
         <v>0</v>
       </c>
       <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>16100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>18500</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
@@ -3873,8 +3978,8 @@
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA47" s="3">
         <v>0</v>
@@ -3891,132 +3996,138 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4014300</v>
+      </c>
+      <c r="E48" s="3">
         <v>4006600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3966000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4015900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1221700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1496500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1491600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1495800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1462100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1541800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1164800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3577100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6431400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6486600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6535300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7733900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7844200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8488500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8534900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8480700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8543400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>8521400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>9398900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>9489200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>9712300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>9838300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>9944400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>10061900</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>11591800</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E49" s="3">
         <v>31600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>42400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>60400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>25300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>33500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>47800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>61800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>76300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>90700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>104900</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
@@ -4030,8 +4141,8 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>211500</v>
+      </c>
+      <c r="E52" s="3">
         <v>226600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>191700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>106500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>383900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>87300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>76100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>60200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>135500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>50700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>70500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>81400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>65500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>93600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>104400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>128500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>89900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>91700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>120400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>125100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>196900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>175000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>148800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>266400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>244700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>248700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>97100</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>185600</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>108600</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5268900</v>
+      </c>
+      <c r="E54" s="3">
         <v>5197400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5072400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5234900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2385500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2097900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2033400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2073400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2094800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2150500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1694900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4263900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7112700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7187500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7261100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8284500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8395500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9060700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9116300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9264900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9401100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9393700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>10268100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>10794700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>10898200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>11025100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>11006000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>11440100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>12584100</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,97 +4710,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>281300</v>
+      </c>
+      <c r="E57" s="3">
         <v>310700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>265600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>290700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>144500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>136100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>122200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>120400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>106400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>124000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>96200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>95200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>81100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>94700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>87900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>108200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>108800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>118000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>111000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>125600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>103300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>93600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>94300</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>84000</v>
       </c>
       <c r="AA57" s="3">
         <v>84000</v>
       </c>
       <c r="AB57" s="3">
+        <v>84000</v>
+      </c>
+      <c r="AC57" s="3">
         <v>86600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>83800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>108200</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4678,13 +4812,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>15000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>159700</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -4698,8 +4832,8 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -4711,25 +4845,25 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>3953700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>261000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>62500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>362500</v>
-      </c>
-      <c r="T58" s="3">
-        <v>300000</v>
       </c>
       <c r="U58" s="3">
         <v>300000</v>
       </c>
       <c r="V58" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4741,220 +4875,229 @@
         <v>0</v>
       </c>
       <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>249800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>249700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>249500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>249300</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>299900</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>299800</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>234600</v>
+      </c>
+      <c r="E59" s="3">
         <v>203400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>182400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>216700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>124300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>111500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>111800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>128000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>135100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>147600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>106800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>123200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>118500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>393500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>310800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>346200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>299500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>316700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>184600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>239900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>212500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>243600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>200200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>259100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>261600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>312300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>216800</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>225200</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>515800</v>
+      </c>
+      <c r="E60" s="3">
         <v>514200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>463000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>667100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>268800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>247600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>234100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>248400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>241500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>271600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>203000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>218400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>199600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4442000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>659600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>516900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>770700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>734800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>595600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>365500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>315800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>337200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>294500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>593000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>595300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>648500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>549900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>633300</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>684100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>585800</v>
+      </c>
+      <c r="E61" s="3">
         <v>585400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>505700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>513100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>434400</v>
-      </c>
-      <c r="H61" s="3">
-        <v>216000</v>
       </c>
       <c r="I61" s="3">
         <v>216000</v>
@@ -4963,159 +5106,165 @@
         <v>216000</v>
       </c>
       <c r="K61" s="3">
-        <v>406000</v>
+        <v>216000</v>
       </c>
       <c r="L61" s="3">
         <v>406000</v>
       </c>
       <c r="M61" s="3">
+        <v>406000</v>
+      </c>
+      <c r="N61" s="3">
         <v>393500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3997900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3977900</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>3692500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3779500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3577900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3553100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3550800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3877400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3903000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3842600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3841400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3795900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3795300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3793900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>3792500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>4040200</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>3830200</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>334300</v>
+      </c>
+      <c r="E62" s="3">
         <v>378400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>399500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>447600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>133800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>125500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>117800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>108400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>80600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>87100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>95800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>359000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>426100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>188500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>312500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>329100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>331700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>345100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>386100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>367500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>490600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>440800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>473500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>455100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>542800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>510300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>481700</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>299200</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1435900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1478000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1368100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1627800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>836900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>589200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>567900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>572800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>728100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>764700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>692300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4575300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4603600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4630500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4664600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4625500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4801700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5024100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4932800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5011800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5113100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5031500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5280200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5518500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5611300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5648700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>5545400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>5681400</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>5539200</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>464500</v>
+      </c>
+      <c r="E72" s="3">
         <v>359800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>354000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>255900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>136000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>102400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>65300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>102000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-21500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-18200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1070700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1752000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1802900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1845100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2907800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2940600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3385500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3537500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3608400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3641400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3721400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4351100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4637700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>4662500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>4759300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>4852600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>5154200</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>6457100</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3833000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3719400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3704300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3607100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1548600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1508800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1465500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1500600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1366700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1385700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1002600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-311400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2509000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2557000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2596500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3659000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3593800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4036600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4183500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4253200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4288000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4362200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4988000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>5276200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>5287000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>5376400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>5460500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>5758700</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>7044900</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>158300</v>
+      </c>
+      <c r="E81" s="3">
         <v>65800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>108100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>135000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>33600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>37100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-36700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>123400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-23700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>20400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>232000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2822700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-50900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-42200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1062700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-32900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-444900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-152000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-70900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-33100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-81600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-628100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-142300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-24700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-96800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-93400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-301700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-1289400</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-55100</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E83" s="3">
         <v>71300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>69900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>33000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>40900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>39700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>39100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>39700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>39600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>43300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>90500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>90600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>89400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>103700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>106700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>112800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>111100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>109600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>114200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>113900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>129700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>128800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>138100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>137600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>136600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>135700</v>
-      </c>
-      <c r="AD83" s="3">
-        <v>155200</v>
       </c>
       <c r="AE83" s="3">
         <v>155200</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>155200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E89" s="3">
         <v>211200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-63100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>171200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>73500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>88100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-51800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>27600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-27300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>36500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>188400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>49100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>218200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-24000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>33300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-40800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>128500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-10600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>54900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>154900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>44800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>112400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>141900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>165600</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>101100</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-98600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-106800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-62700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-65100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-29700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-32500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-47000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-36700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-42700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-59700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-30000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-36300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-43200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-32900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-36500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-46200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-70200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-55600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-96800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-45500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-73500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-42100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-33800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-36800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-25400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-30200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-18700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-727800</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-351000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-98600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-106800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-62700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>469300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-31000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-32800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>239400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-42500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>26000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-42000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-32700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-36500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-42900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-70200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-54100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-88900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-44200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-73100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-38400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-33700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-32900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-18100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-29200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-38100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-60000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-472200</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7741,10 +7975,13 @@
         <v>0</v>
       </c>
       <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,97 +8253,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-31800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-170500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-581800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>218500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-189900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>12800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-191200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>108600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-206700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>76400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-12500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-57900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-35400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-10700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-222400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-30600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-20900</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
       <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>-309700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>196300</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-28200</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E102" s="3">
         <v>72600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-296300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>58600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>262300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>57500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-89400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>77100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-48900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>51500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-248000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>26200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>146300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>15300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>71300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-31400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-17800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-33300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-187500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>48900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-84500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-50200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-201200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>54100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>5800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>83200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-206000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>299700</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-396900</v>
       </c>
     </row>
